--- a/BackTest/2020-01-21 BackTest INS.xlsx
+++ b/BackTest/2020-01-21 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M228"/>
+  <dimension ref="A1:M229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="C2" t="n">
         <v>190.2</v>
       </c>
-      <c r="C2" t="n">
-        <v>190.1</v>
-      </c>
       <c r="D2" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="E2" t="n">
         <v>190.2</v>
       </c>
-      <c r="E2" t="n">
-        <v>189.8</v>
-      </c>
       <c r="F2" t="n">
-        <v>1050.2227</v>
+        <v>2626.0946</v>
       </c>
       <c r="G2" t="n">
-        <v>191.3550000000003</v>
+        <v>191.3316666666669</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,32 +468,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>190</v>
+        <v>190.2</v>
       </c>
       <c r="C3" t="n">
-        <v>190</v>
+        <v>190.1</v>
       </c>
       <c r="D3" t="n">
-        <v>190</v>
+        <v>190.2</v>
       </c>
       <c r="E3" t="n">
         <v>189.8</v>
       </c>
       <c r="F3" t="n">
-        <v>4209.7124</v>
+        <v>1050.2227</v>
       </c>
       <c r="G3" t="n">
-        <v>191.3766666666669</v>
+        <v>191.3550000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>190.2</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -512,13 +518,13 @@
         <v>190</v>
       </c>
       <c r="E4" t="n">
-        <v>190</v>
+        <v>189.8</v>
       </c>
       <c r="F4" t="n">
-        <v>132</v>
+        <v>4209.7124</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3983333333336</v>
+        <v>191.3766666666669</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -528,7 +534,11 @@
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -538,22 +548,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>190.2</v>
+        <v>190</v>
       </c>
       <c r="C5" t="n">
-        <v>190.2</v>
+        <v>190</v>
       </c>
       <c r="D5" t="n">
-        <v>190.2</v>
+        <v>190</v>
       </c>
       <c r="E5" t="n">
-        <v>190.2</v>
+        <v>190</v>
       </c>
       <c r="F5" t="n">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="G5" t="n">
-        <v>191.4366666666669</v>
+        <v>191.3983333333336</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -563,7 +573,11 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -576,19 +590,19 @@
         <v>190.2</v>
       </c>
       <c r="C6" t="n">
-        <v>189.6</v>
+        <v>190.2</v>
       </c>
       <c r="D6" t="n">
         <v>190.2</v>
       </c>
       <c r="E6" t="n">
-        <v>189.6</v>
+        <v>190.2</v>
       </c>
       <c r="F6" t="n">
-        <v>131.93</v>
+        <v>176</v>
       </c>
       <c r="G6" t="n">
-        <v>191.4650000000003</v>
+        <v>191.4366666666669</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -598,7 +612,11 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -608,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="C7" t="n">
         <v>189.6</v>
       </c>
-      <c r="C7" t="n">
-        <v>189.9</v>
-      </c>
       <c r="D7" t="n">
-        <v>189.9</v>
+        <v>190.2</v>
       </c>
       <c r="E7" t="n">
-        <v>188.5</v>
+        <v>189.6</v>
       </c>
       <c r="F7" t="n">
-        <v>11793.9302</v>
+        <v>131.93</v>
       </c>
       <c r="G7" t="n">
-        <v>191.5216666666669</v>
+        <v>191.4650000000003</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -633,7 +651,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -643,22 +665,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>189</v>
+        <v>189.6</v>
       </c>
       <c r="C8" t="n">
-        <v>188.5</v>
+        <v>189.9</v>
       </c>
       <c r="D8" t="n">
-        <v>189</v>
+        <v>189.9</v>
       </c>
       <c r="E8" t="n">
         <v>188.5</v>
       </c>
       <c r="F8" t="n">
-        <v>594.0863000000001</v>
+        <v>11793.9302</v>
       </c>
       <c r="G8" t="n">
-        <v>191.5383333333336</v>
+        <v>191.5216666666669</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -668,7 +690,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -678,22 +704,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>190.2</v>
+        <v>189</v>
       </c>
       <c r="C9" t="n">
-        <v>190.2</v>
+        <v>188.5</v>
       </c>
       <c r="D9" t="n">
-        <v>190.2</v>
+        <v>189</v>
       </c>
       <c r="E9" t="n">
-        <v>190.2</v>
+        <v>188.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1835.5756</v>
+        <v>594.0863000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>191.5900000000003</v>
+        <v>191.5383333333336</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -703,7 +729,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -713,22 +743,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>190.5</v>
+        <v>190.2</v>
       </c>
       <c r="C10" t="n">
-        <v>190.6</v>
+        <v>190.2</v>
       </c>
       <c r="D10" t="n">
-        <v>190.6</v>
+        <v>190.2</v>
       </c>
       <c r="E10" t="n">
-        <v>190.5</v>
+        <v>190.2</v>
       </c>
       <c r="F10" t="n">
-        <v>3332.2175</v>
+        <v>1835.5756</v>
       </c>
       <c r="G10" t="n">
-        <v>191.6566666666669</v>
+        <v>191.5900000000003</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -738,7 +768,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -751,19 +785,19 @@
         <v>190.5</v>
       </c>
       <c r="C11" t="n">
-        <v>190.5</v>
+        <v>190.6</v>
       </c>
       <c r="D11" t="n">
-        <v>190.5</v>
+        <v>190.6</v>
       </c>
       <c r="E11" t="n">
         <v>190.5</v>
       </c>
       <c r="F11" t="n">
-        <v>10.5669</v>
+        <v>3332.2175</v>
       </c>
       <c r="G11" t="n">
-        <v>191.6933333333336</v>
+        <v>191.6566666666669</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -773,7 +807,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,22 +821,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>190</v>
+        <v>190.5</v>
       </c>
       <c r="C12" t="n">
-        <v>190</v>
+        <v>190.5</v>
       </c>
       <c r="D12" t="n">
-        <v>190</v>
+        <v>190.5</v>
       </c>
       <c r="E12" t="n">
-        <v>190</v>
+        <v>190.5</v>
       </c>
       <c r="F12" t="n">
-        <v>138.63</v>
+        <v>10.5669</v>
       </c>
       <c r="G12" t="n">
-        <v>191.7433333333336</v>
+        <v>191.6933333333336</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -808,7 +846,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -830,10 +872,10 @@
         <v>190</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2114</v>
+        <v>138.63</v>
       </c>
       <c r="G13" t="n">
-        <v>191.776666666667</v>
+        <v>191.7433333333336</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -843,7 +885,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,22 +899,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>189.5</v>
+        <v>190</v>
       </c>
       <c r="C14" t="n">
-        <v>189.5</v>
+        <v>190</v>
       </c>
       <c r="D14" t="n">
-        <v>189.5</v>
+        <v>190</v>
       </c>
       <c r="E14" t="n">
-        <v>189.5</v>
+        <v>190</v>
       </c>
       <c r="F14" t="n">
-        <v>4.5669</v>
+        <v>0.2114</v>
       </c>
       <c r="G14" t="n">
-        <v>191.8250000000003</v>
+        <v>191.776666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -878,7 +924,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -900,10 +950,10 @@
         <v>189.5</v>
       </c>
       <c r="F15" t="n">
-        <v>122</v>
+        <v>4.5669</v>
       </c>
       <c r="G15" t="n">
-        <v>191.8733333333336</v>
+        <v>191.8250000000003</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -913,7 +963,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -923,22 +977,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>189.1</v>
+        <v>189.5</v>
       </c>
       <c r="C16" t="n">
-        <v>188.5</v>
+        <v>189.5</v>
       </c>
       <c r="D16" t="n">
-        <v>189.1</v>
+        <v>189.5</v>
       </c>
       <c r="E16" t="n">
-        <v>188.5</v>
+        <v>189.5</v>
       </c>
       <c r="F16" t="n">
-        <v>5473.5815</v>
+        <v>122</v>
       </c>
       <c r="G16" t="n">
-        <v>191.8866666666669</v>
+        <v>191.8733333333336</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,7 +1002,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,22 +1016,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="C17" t="n">
         <v>188.5</v>
       </c>
-      <c r="C17" t="n">
-        <v>188.1</v>
-      </c>
       <c r="D17" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="E17" t="n">
         <v>188.5</v>
       </c>
-      <c r="E17" t="n">
-        <v>188.1</v>
-      </c>
       <c r="F17" t="n">
-        <v>927.0059</v>
+        <v>5473.5815</v>
       </c>
       <c r="G17" t="n">
-        <v>191.8550000000003</v>
+        <v>191.8866666666669</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,7 +1041,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -993,22 +1055,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>188.2</v>
+        <v>188.5</v>
       </c>
       <c r="C18" t="n">
-        <v>188.2</v>
+        <v>188.1</v>
       </c>
       <c r="D18" t="n">
-        <v>188.2</v>
+        <v>188.5</v>
       </c>
       <c r="E18" t="n">
-        <v>188.2</v>
+        <v>188.1</v>
       </c>
       <c r="F18" t="n">
-        <v>1797.4998</v>
+        <v>927.0059</v>
       </c>
       <c r="G18" t="n">
-        <v>191.8250000000003</v>
+        <v>191.8550000000003</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,7 +1080,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,32 +1094,38 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>189.7</v>
+        <v>188.2</v>
       </c>
       <c r="C19" t="n">
-        <v>189.7</v>
+        <v>188.2</v>
       </c>
       <c r="D19" t="n">
-        <v>189.7</v>
+        <v>188.2</v>
       </c>
       <c r="E19" t="n">
-        <v>189.7</v>
+        <v>188.2</v>
       </c>
       <c r="F19" t="n">
-        <v>2.63</v>
+        <v>1797.4998</v>
       </c>
       <c r="G19" t="n">
-        <v>191.8200000000003</v>
+        <v>191.8250000000003</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>188.1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1135,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>189.5</v>
+        <v>189.7</v>
       </c>
       <c r="C20" t="n">
-        <v>189.5</v>
+        <v>189.7</v>
       </c>
       <c r="D20" t="n">
-        <v>189.5</v>
+        <v>189.7</v>
       </c>
       <c r="E20" t="n">
-        <v>189.5</v>
+        <v>189.7</v>
       </c>
       <c r="F20" t="n">
-        <v>1499.9064</v>
+        <v>2.63</v>
       </c>
       <c r="G20" t="n">
-        <v>191.8100000000003</v>
+        <v>191.8200000000003</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,7 +1160,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1101,19 +1177,19 @@
         <v>189.5</v>
       </c>
       <c r="C21" t="n">
-        <v>189.4</v>
+        <v>189.5</v>
       </c>
       <c r="D21" t="n">
         <v>189.5</v>
       </c>
       <c r="E21" t="n">
-        <v>189.4</v>
+        <v>189.5</v>
       </c>
       <c r="F21" t="n">
-        <v>9774.6792</v>
+        <v>1499.9064</v>
       </c>
       <c r="G21" t="n">
-        <v>191.7966666666669</v>
+        <v>191.8100000000003</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,7 +1199,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1213,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>189.3</v>
+        <v>189.5</v>
       </c>
       <c r="C22" t="n">
-        <v>189.2</v>
+        <v>189.4</v>
       </c>
       <c r="D22" t="n">
-        <v>189.3</v>
+        <v>189.5</v>
       </c>
       <c r="E22" t="n">
-        <v>189.2</v>
+        <v>189.4</v>
       </c>
       <c r="F22" t="n">
-        <v>11414.5752</v>
+        <v>9774.6792</v>
       </c>
       <c r="G22" t="n">
-        <v>191.7783333333336</v>
+        <v>191.7966666666669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,7 +1238,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1252,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>190.6</v>
+        <v>189.3</v>
       </c>
       <c r="C23" t="n">
-        <v>190.6</v>
+        <v>189.2</v>
       </c>
       <c r="D23" t="n">
-        <v>190.6</v>
+        <v>189.3</v>
       </c>
       <c r="E23" t="n">
-        <v>190.6</v>
+        <v>189.2</v>
       </c>
       <c r="F23" t="n">
-        <v>104</v>
+        <v>11414.5752</v>
       </c>
       <c r="G23" t="n">
-        <v>191.7800000000003</v>
+        <v>191.7783333333336</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,7 +1277,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1206,16 +1294,16 @@
         <v>190.6</v>
       </c>
       <c r="C24" t="n">
-        <v>190.7</v>
+        <v>190.6</v>
       </c>
       <c r="D24" t="n">
-        <v>190.7</v>
+        <v>190.6</v>
       </c>
       <c r="E24" t="n">
-        <v>190.5</v>
+        <v>190.6</v>
       </c>
       <c r="F24" t="n">
-        <v>909</v>
+        <v>104</v>
       </c>
       <c r="G24" t="n">
         <v>191.7800000000003</v>
@@ -1228,7 +1316,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,7 +1330,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>190.7</v>
+        <v>190.6</v>
       </c>
       <c r="C25" t="n">
         <v>190.7</v>
@@ -1247,13 +1339,13 @@
         <v>190.7</v>
       </c>
       <c r="E25" t="n">
-        <v>190.7</v>
+        <v>190.5</v>
       </c>
       <c r="F25" t="n">
-        <v>1196.9532</v>
+        <v>909</v>
       </c>
       <c r="G25" t="n">
-        <v>191.7733333333336</v>
+        <v>191.7800000000003</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1355,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1285,10 +1381,10 @@
         <v>190.7</v>
       </c>
       <c r="F26" t="n">
-        <v>1078.2828</v>
+        <v>1196.9532</v>
       </c>
       <c r="G26" t="n">
-        <v>191.751666666667</v>
+        <v>191.7733333333336</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1394,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1408,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>190.8</v>
+        <v>190.7</v>
       </c>
       <c r="C27" t="n">
-        <v>190.8</v>
+        <v>190.7</v>
       </c>
       <c r="D27" t="n">
-        <v>190.8</v>
+        <v>190.7</v>
       </c>
       <c r="E27" t="n">
-        <v>190.8</v>
+        <v>190.7</v>
       </c>
       <c r="F27" t="n">
-        <v>3040.6632</v>
+        <v>1078.2828</v>
       </c>
       <c r="G27" t="n">
-        <v>191.7300000000003</v>
+        <v>191.751666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1433,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1447,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>190.9</v>
+        <v>190.8</v>
       </c>
       <c r="C28" t="n">
-        <v>191.2</v>
+        <v>190.8</v>
       </c>
       <c r="D28" t="n">
-        <v>191.2</v>
+        <v>190.8</v>
       </c>
       <c r="E28" t="n">
-        <v>190.9</v>
+        <v>190.8</v>
       </c>
       <c r="F28" t="n">
-        <v>387.1161</v>
+        <v>3040.6632</v>
       </c>
       <c r="G28" t="n">
-        <v>191.7150000000003</v>
+        <v>191.7300000000003</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1472,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1486,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>191.3</v>
+        <v>190.9</v>
       </c>
       <c r="C29" t="n">
-        <v>191.3</v>
+        <v>191.2</v>
       </c>
       <c r="D29" t="n">
-        <v>191.3</v>
+        <v>191.2</v>
       </c>
       <c r="E29" t="n">
-        <v>191.3</v>
+        <v>190.9</v>
       </c>
       <c r="F29" t="n">
-        <v>44</v>
+        <v>387.1161</v>
       </c>
       <c r="G29" t="n">
-        <v>191.7000000000003</v>
+        <v>191.7150000000003</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1511,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1425,10 +1537,10 @@
         <v>191.3</v>
       </c>
       <c r="F30" t="n">
-        <v>83.43000000000001</v>
+        <v>44</v>
       </c>
       <c r="G30" t="n">
-        <v>191.6816666666669</v>
+        <v>191.7000000000003</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1550,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1564,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>191.1</v>
+        <v>191.3</v>
       </c>
       <c r="C31" t="n">
-        <v>191</v>
+        <v>191.3</v>
       </c>
       <c r="D31" t="n">
-        <v>191.1</v>
+        <v>191.3</v>
       </c>
       <c r="E31" t="n">
-        <v>191</v>
+        <v>191.3</v>
       </c>
       <c r="F31" t="n">
-        <v>1332</v>
+        <v>83.43000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>191.6500000000003</v>
+        <v>191.6816666666669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1589,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1603,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>191</v>
+        <v>191.1</v>
       </c>
       <c r="C32" t="n">
         <v>191</v>
       </c>
       <c r="D32" t="n">
-        <v>191</v>
+        <v>191.1</v>
       </c>
       <c r="E32" t="n">
         <v>191</v>
       </c>
       <c r="F32" t="n">
-        <v>220</v>
+        <v>1332</v>
       </c>
       <c r="G32" t="n">
-        <v>191.5516666666669</v>
+        <v>191.6500000000003</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1628,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1530,10 +1654,10 @@
         <v>191</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4362</v>
+        <v>220</v>
       </c>
       <c r="G33" t="n">
-        <v>191.4566666666669</v>
+        <v>191.5516666666669</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1667,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1681,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>190.5</v>
+        <v>191</v>
       </c>
       <c r="C34" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D34" t="n">
-        <v>190.5</v>
+        <v>191</v>
       </c>
       <c r="E34" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F34" t="n">
-        <v>5459.777</v>
+        <v>0.4362</v>
       </c>
       <c r="G34" t="n">
-        <v>191.3450000000003</v>
+        <v>191.4566666666669</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1706,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1720,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>190</v>
+        <v>190.5</v>
       </c>
       <c r="C35" t="n">
         <v>190</v>
       </c>
       <c r="D35" t="n">
-        <v>190</v>
+        <v>190.5</v>
       </c>
       <c r="E35" t="n">
         <v>190</v>
       </c>
       <c r="F35" t="n">
-        <v>274.575</v>
+        <v>5459.777</v>
       </c>
       <c r="G35" t="n">
-        <v>191.2916666666669</v>
+        <v>191.3450000000003</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1745,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1759,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>190.5</v>
+        <v>190</v>
       </c>
       <c r="C36" t="n">
-        <v>190.5</v>
+        <v>190</v>
       </c>
       <c r="D36" t="n">
-        <v>190.5</v>
+        <v>190</v>
       </c>
       <c r="E36" t="n">
-        <v>190.5</v>
+        <v>190</v>
       </c>
       <c r="F36" t="n">
-        <v>2147.6442</v>
+        <v>274.575</v>
       </c>
       <c r="G36" t="n">
-        <v>191.2166666666669</v>
+        <v>191.2916666666669</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1784,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1798,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>190.1</v>
+        <v>190.5</v>
       </c>
       <c r="C37" t="n">
-        <v>190</v>
+        <v>190.5</v>
       </c>
       <c r="D37" t="n">
-        <v>190.1</v>
+        <v>190.5</v>
       </c>
       <c r="E37" t="n">
-        <v>190</v>
+        <v>190.5</v>
       </c>
       <c r="F37" t="n">
-        <v>6.6302</v>
+        <v>2147.6442</v>
       </c>
       <c r="G37" t="n">
-        <v>191.1400000000002</v>
+        <v>191.2166666666669</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1823,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1837,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>190</v>
+        <v>190.1</v>
       </c>
       <c r="C38" t="n">
         <v>190</v>
       </c>
       <c r="D38" t="n">
-        <v>190</v>
+        <v>190.1</v>
       </c>
       <c r="E38" t="n">
         <v>190</v>
       </c>
       <c r="F38" t="n">
-        <v>2.6316</v>
+        <v>6.6302</v>
       </c>
       <c r="G38" t="n">
-        <v>191.0633333333336</v>
+        <v>191.1400000000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1862,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1731,19 +1879,19 @@
         <v>190</v>
       </c>
       <c r="C39" t="n">
-        <v>190.5</v>
+        <v>190</v>
       </c>
       <c r="D39" t="n">
-        <v>190.5</v>
+        <v>190</v>
       </c>
       <c r="E39" t="n">
         <v>190</v>
       </c>
       <c r="F39" t="n">
-        <v>2443.7331</v>
+        <v>2.6316</v>
       </c>
       <c r="G39" t="n">
-        <v>191.0216666666669</v>
+        <v>191.0633333333336</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1901,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,7 +1915,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="C40" t="n">
         <v>190.5</v>
@@ -1772,13 +1924,13 @@
         <v>190.5</v>
       </c>
       <c r="E40" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="F40" t="n">
-        <v>13153.1845</v>
+        <v>2443.7331</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9800000000002</v>
+        <v>191.0216666666669</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1940,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1954,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="C41" t="n">
         <v>190.5</v>
       </c>
-      <c r="C41" t="n">
-        <v>191.2</v>
-      </c>
       <c r="D41" t="n">
-        <v>191.3</v>
+        <v>190.5</v>
       </c>
       <c r="E41" t="n">
-        <v>190.5</v>
+        <v>190.4</v>
       </c>
       <c r="F41" t="n">
-        <v>857</v>
+        <v>13153.1845</v>
       </c>
       <c r="G41" t="n">
-        <v>190.9500000000002</v>
+        <v>190.9800000000002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1979,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1993,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="D42" t="n">
         <v>191.3</v>
       </c>
-      <c r="C42" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="D42" t="n">
-        <v>191.5</v>
-      </c>
       <c r="E42" t="n">
-        <v>191.3</v>
+        <v>190.5</v>
       </c>
       <c r="F42" t="n">
-        <v>550</v>
+        <v>857</v>
       </c>
       <c r="G42" t="n">
-        <v>190.9250000000002</v>
+        <v>190.9500000000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +2018,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +2032,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>190</v>
+        <v>191.3</v>
       </c>
       <c r="C43" t="n">
-        <v>189.6</v>
+        <v>191.5</v>
       </c>
       <c r="D43" t="n">
-        <v>190</v>
+        <v>191.5</v>
       </c>
       <c r="E43" t="n">
-        <v>189.6</v>
+        <v>191.3</v>
       </c>
       <c r="F43" t="n">
-        <v>921.7066</v>
+        <v>550</v>
       </c>
       <c r="G43" t="n">
-        <v>190.8683333333336</v>
+        <v>190.9250000000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +2057,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,22 +2071,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C44" t="n">
-        <v>191</v>
+        <v>189.6</v>
       </c>
       <c r="D44" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E44" t="n">
-        <v>191</v>
+        <v>189.6</v>
       </c>
       <c r="F44" t="n">
-        <v>2.61</v>
+        <v>921.7066</v>
       </c>
       <c r="G44" t="n">
-        <v>190.8000000000002</v>
+        <v>190.8683333333336</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +2096,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1941,19 +2113,19 @@
         <v>191</v>
       </c>
       <c r="C45" t="n">
-        <v>190.1</v>
+        <v>191</v>
       </c>
       <c r="D45" t="n">
         <v>191</v>
       </c>
       <c r="E45" t="n">
-        <v>189.7</v>
+        <v>191</v>
       </c>
       <c r="F45" t="n">
-        <v>13063.9039</v>
+        <v>2.61</v>
       </c>
       <c r="G45" t="n">
-        <v>190.7300000000003</v>
+        <v>190.8000000000002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2135,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2149,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>190.7</v>
+        <v>191</v>
       </c>
       <c r="C46" t="n">
-        <v>191.3</v>
+        <v>190.1</v>
       </c>
       <c r="D46" t="n">
-        <v>191.3</v>
+        <v>191</v>
       </c>
       <c r="E46" t="n">
-        <v>190.7</v>
+        <v>189.7</v>
       </c>
       <c r="F46" t="n">
-        <v>882.724</v>
+        <v>13063.9039</v>
       </c>
       <c r="G46" t="n">
-        <v>190.6866666666669</v>
+        <v>190.7300000000003</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2174,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2188,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>191.1</v>
+        <v>190.7</v>
       </c>
       <c r="C47" t="n">
-        <v>191.1</v>
+        <v>191.3</v>
       </c>
       <c r="D47" t="n">
-        <v>191.1</v>
+        <v>191.3</v>
       </c>
       <c r="E47" t="n">
-        <v>191.1</v>
+        <v>190.7</v>
       </c>
       <c r="F47" t="n">
-        <v>2000</v>
+        <v>882.724</v>
       </c>
       <c r="G47" t="n">
-        <v>190.6400000000003</v>
+        <v>190.6866666666669</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2213,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2055,10 +2239,10 @@
         <v>191.1</v>
       </c>
       <c r="F48" t="n">
-        <v>29.35</v>
+        <v>2000</v>
       </c>
       <c r="G48" t="n">
-        <v>190.5766666666669</v>
+        <v>190.6400000000003</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2252,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2266,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>191.3</v>
+        <v>191.1</v>
       </c>
       <c r="C49" t="n">
         <v>191.1</v>
       </c>
       <c r="D49" t="n">
-        <v>191.3</v>
+        <v>191.1</v>
       </c>
       <c r="E49" t="n">
         <v>191.1</v>
       </c>
       <c r="F49" t="n">
-        <v>4539.8813</v>
+        <v>29.35</v>
       </c>
       <c r="G49" t="n">
-        <v>190.5300000000003</v>
+        <v>190.5766666666669</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2291,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2305,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>191.1</v>
+        <v>191.3</v>
       </c>
       <c r="C50" t="n">
         <v>191.1</v>
       </c>
       <c r="D50" t="n">
-        <v>191.1</v>
+        <v>191.3</v>
       </c>
       <c r="E50" t="n">
         <v>191.1</v>
       </c>
       <c r="F50" t="n">
-        <v>11560</v>
+        <v>4539.8813</v>
       </c>
       <c r="G50" t="n">
-        <v>190.4933333333337</v>
+        <v>190.5300000000003</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2330,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2151,19 +2347,19 @@
         <v>191.1</v>
       </c>
       <c r="C51" t="n">
-        <v>189.7</v>
+        <v>191.1</v>
       </c>
       <c r="D51" t="n">
         <v>191.1</v>
       </c>
       <c r="E51" t="n">
-        <v>189.7</v>
+        <v>191.1</v>
       </c>
       <c r="F51" t="n">
-        <v>5971.7565</v>
+        <v>11560</v>
       </c>
       <c r="G51" t="n">
-        <v>190.4400000000003</v>
+        <v>190.4933333333337</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2369,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2383,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>189.7</v>
+        <v>191.1</v>
       </c>
       <c r="C52" t="n">
         <v>189.7</v>
       </c>
       <c r="D52" t="n">
-        <v>189.7</v>
+        <v>191.1</v>
       </c>
       <c r="E52" t="n">
         <v>189.7</v>
       </c>
       <c r="F52" t="n">
-        <v>872.5497</v>
+        <v>5971.7565</v>
       </c>
       <c r="G52" t="n">
-        <v>190.386666666667</v>
+        <v>190.4400000000003</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2408,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2422,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>191</v>
+        <v>189.7</v>
       </c>
       <c r="C53" t="n">
-        <v>191</v>
+        <v>189.7</v>
       </c>
       <c r="D53" t="n">
-        <v>191</v>
+        <v>189.7</v>
       </c>
       <c r="E53" t="n">
-        <v>191</v>
+        <v>189.7</v>
       </c>
       <c r="F53" t="n">
-        <v>2333</v>
+        <v>872.5497</v>
       </c>
       <c r="G53" t="n">
-        <v>190.3583333333337</v>
+        <v>190.386666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2447,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2461,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>191.1</v>
+        <v>191</v>
       </c>
       <c r="C54" t="n">
-        <v>191.2</v>
+        <v>191</v>
       </c>
       <c r="D54" t="n">
-        <v>191.2</v>
+        <v>191</v>
       </c>
       <c r="E54" t="n">
-        <v>191.1</v>
+        <v>191</v>
       </c>
       <c r="F54" t="n">
-        <v>2737</v>
+        <v>2333</v>
       </c>
       <c r="G54" t="n">
-        <v>190.3350000000003</v>
+        <v>190.3583333333337</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2486,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2500,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>191.3</v>
+        <v>191.1</v>
       </c>
       <c r="C55" t="n">
-        <v>191.3</v>
+        <v>191.2</v>
       </c>
       <c r="D55" t="n">
-        <v>191.3</v>
+        <v>191.2</v>
       </c>
       <c r="E55" t="n">
-        <v>191.3</v>
+        <v>191.1</v>
       </c>
       <c r="F55" t="n">
-        <v>2.61</v>
+        <v>2737</v>
       </c>
       <c r="G55" t="n">
-        <v>190.3133333333336</v>
+        <v>190.3350000000003</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2525,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,7 +2539,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>190.1</v>
+        <v>191.3</v>
       </c>
       <c r="C56" t="n">
         <v>191.3</v>
@@ -2332,13 +2548,13 @@
         <v>191.3</v>
       </c>
       <c r="E56" t="n">
-        <v>190.1</v>
+        <v>191.3</v>
       </c>
       <c r="F56" t="n">
-        <v>395.2573</v>
+        <v>2.61</v>
       </c>
       <c r="G56" t="n">
-        <v>190.291666666667</v>
+        <v>190.3133333333336</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2564,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2578,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>190.3</v>
+        <v>190.1</v>
       </c>
       <c r="C57" t="n">
-        <v>190.3</v>
+        <v>191.3</v>
       </c>
       <c r="D57" t="n">
-        <v>190.3</v>
+        <v>191.3</v>
       </c>
       <c r="E57" t="n">
-        <v>190.3</v>
+        <v>190.1</v>
       </c>
       <c r="F57" t="n">
-        <v>2750</v>
+        <v>395.2573</v>
       </c>
       <c r="G57" t="n">
-        <v>190.2633333333336</v>
+        <v>190.291666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2603,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2405,10 +2629,10 @@
         <v>190.3</v>
       </c>
       <c r="F58" t="n">
-        <v>944</v>
+        <v>2750</v>
       </c>
       <c r="G58" t="n">
-        <v>190.2500000000003</v>
+        <v>190.2633333333336</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2642,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2656,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>190.1</v>
+        <v>190.3</v>
       </c>
       <c r="C59" t="n">
-        <v>190.1</v>
+        <v>190.3</v>
       </c>
       <c r="D59" t="n">
-        <v>190.1</v>
+        <v>190.3</v>
       </c>
       <c r="E59" t="n">
-        <v>190.1</v>
+        <v>190.3</v>
       </c>
       <c r="F59" t="n">
-        <v>1039.393</v>
+        <v>944</v>
       </c>
       <c r="G59" t="n">
-        <v>190.2733333333336</v>
+        <v>190.2500000000003</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2681,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2695,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>190.2</v>
+        <v>190.1</v>
       </c>
       <c r="C60" t="n">
-        <v>190.2</v>
+        <v>190.1</v>
       </c>
       <c r="D60" t="n">
-        <v>190.2</v>
+        <v>190.1</v>
       </c>
       <c r="E60" t="n">
-        <v>190.2</v>
+        <v>190.1</v>
       </c>
       <c r="F60" t="n">
-        <v>746.03</v>
+        <v>1039.393</v>
       </c>
       <c r="G60" t="n">
-        <v>190.2900000000003</v>
+        <v>190.2733333333336</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2720,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2510,7 +2746,7 @@
         <v>190.2</v>
       </c>
       <c r="F61" t="n">
-        <v>842.6712</v>
+        <v>746.03</v>
       </c>
       <c r="G61" t="n">
         <v>190.2900000000003</v>
@@ -2523,7 +2759,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2545,10 +2785,10 @@
         <v>190.2</v>
       </c>
       <c r="F62" t="n">
-        <v>671.427</v>
+        <v>842.6712</v>
       </c>
       <c r="G62" t="n">
-        <v>190.2916666666669</v>
+        <v>190.2900000000003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2798,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2812,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>190.3</v>
+        <v>190.2</v>
       </c>
       <c r="C63" t="n">
-        <v>190.3</v>
+        <v>190.2</v>
       </c>
       <c r="D63" t="n">
-        <v>190.3</v>
+        <v>190.2</v>
       </c>
       <c r="E63" t="n">
-        <v>190.3</v>
+        <v>190.2</v>
       </c>
       <c r="F63" t="n">
-        <v>43</v>
+        <v>671.427</v>
       </c>
       <c r="G63" t="n">
-        <v>190.2966666666669</v>
+        <v>190.2916666666669</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2837,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2851,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>191.1</v>
+        <v>190.3</v>
       </c>
       <c r="C64" t="n">
-        <v>191.3</v>
+        <v>190.3</v>
       </c>
       <c r="D64" t="n">
-        <v>191.3</v>
+        <v>190.3</v>
       </c>
       <c r="E64" t="n">
-        <v>191.1</v>
+        <v>190.3</v>
       </c>
       <c r="F64" t="n">
-        <v>819.4868</v>
+        <v>43</v>
       </c>
       <c r="G64" t="n">
-        <v>190.3183333333336</v>
+        <v>190.2966666666669</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2876,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,7 +2890,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>191.3</v>
+        <v>191.1</v>
       </c>
       <c r="C65" t="n">
         <v>191.3</v>
@@ -2647,13 +2899,13 @@
         <v>191.3</v>
       </c>
       <c r="E65" t="n">
-        <v>191.3</v>
+        <v>191.1</v>
       </c>
       <c r="F65" t="n">
-        <v>9.1313</v>
+        <v>819.4868</v>
       </c>
       <c r="G65" t="n">
-        <v>190.3366666666669</v>
+        <v>190.3183333333336</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2915,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2929,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>190.5</v>
+        <v>191.3</v>
       </c>
       <c r="C66" t="n">
-        <v>190.5</v>
+        <v>191.3</v>
       </c>
       <c r="D66" t="n">
-        <v>190.5</v>
+        <v>191.3</v>
       </c>
       <c r="E66" t="n">
-        <v>190.5</v>
+        <v>191.3</v>
       </c>
       <c r="F66" t="n">
-        <v>4599.5612</v>
+        <v>9.1313</v>
       </c>
       <c r="G66" t="n">
-        <v>190.3516666666669</v>
+        <v>190.3366666666669</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2954,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2968,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>191</v>
+        <v>190.5</v>
       </c>
       <c r="C67" t="n">
-        <v>191</v>
+        <v>190.5</v>
       </c>
       <c r="D67" t="n">
-        <v>191</v>
+        <v>190.5</v>
       </c>
       <c r="E67" t="n">
-        <v>191</v>
+        <v>190.5</v>
       </c>
       <c r="F67" t="n">
-        <v>2.61</v>
+        <v>4599.5612</v>
       </c>
       <c r="G67" t="n">
-        <v>190.3700000000002</v>
+        <v>190.3516666666669</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2993,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2746,19 +3010,19 @@
         <v>191</v>
       </c>
       <c r="C68" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D68" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E68" t="n">
         <v>191</v>
       </c>
       <c r="F68" t="n">
-        <v>14877.4993</v>
+        <v>2.61</v>
       </c>
       <c r="G68" t="n">
-        <v>190.4283333333336</v>
+        <v>190.3700000000002</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +3032,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2781,19 +3049,19 @@
         <v>191</v>
       </c>
       <c r="C69" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D69" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E69" t="n">
         <v>191</v>
       </c>
       <c r="F69" t="n">
-        <v>1000</v>
+        <v>14877.4993</v>
       </c>
       <c r="G69" t="n">
-        <v>190.4416666666669</v>
+        <v>190.4283333333336</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +3071,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +3085,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>190.1</v>
+        <v>191</v>
       </c>
       <c r="C70" t="n">
-        <v>190.1</v>
+        <v>191</v>
       </c>
       <c r="D70" t="n">
-        <v>190.1</v>
+        <v>191</v>
       </c>
       <c r="E70" t="n">
-        <v>190.1</v>
+        <v>191</v>
       </c>
       <c r="F70" t="n">
-        <v>1755.0434</v>
+        <v>1000</v>
       </c>
       <c r="G70" t="n">
-        <v>190.4333333333335</v>
+        <v>190.4416666666669</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +3110,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2860,10 +3136,10 @@
         <v>190.1</v>
       </c>
       <c r="F71" t="n">
-        <v>604.2843</v>
+        <v>1755.0434</v>
       </c>
       <c r="G71" t="n">
-        <v>190.4266666666669</v>
+        <v>190.4333333333335</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +3149,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +3163,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>191.5</v>
+        <v>190.1</v>
       </c>
       <c r="C72" t="n">
-        <v>191.5</v>
+        <v>190.1</v>
       </c>
       <c r="D72" t="n">
-        <v>191.5</v>
+        <v>190.1</v>
       </c>
       <c r="E72" t="n">
-        <v>191.5</v>
+        <v>190.1</v>
       </c>
       <c r="F72" t="n">
-        <v>2.61</v>
+        <v>604.2843</v>
       </c>
       <c r="G72" t="n">
-        <v>190.4516666666669</v>
+        <v>190.4266666666669</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +3188,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,19 +3202,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>190</v>
+        <v>191.5</v>
       </c>
       <c r="C73" t="n">
-        <v>190</v>
+        <v>191.5</v>
       </c>
       <c r="D73" t="n">
-        <v>190</v>
+        <v>191.5</v>
       </c>
       <c r="E73" t="n">
-        <v>190</v>
+        <v>191.5</v>
       </c>
       <c r="F73" t="n">
-        <v>1611.1054</v>
+        <v>2.61</v>
       </c>
       <c r="G73" t="n">
         <v>190.4516666666669</v>
@@ -2943,7 +3227,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2965,10 +3253,10 @@
         <v>190</v>
       </c>
       <c r="F74" t="n">
-        <v>1037.415</v>
+        <v>1611.1054</v>
       </c>
       <c r="G74" t="n">
-        <v>190.4600000000002</v>
+        <v>190.4516666666669</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3266,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3000,10 +3292,10 @@
         <v>190</v>
       </c>
       <c r="F75" t="n">
-        <v>412</v>
+        <v>1037.415</v>
       </c>
       <c r="G75" t="n">
-        <v>190.4683333333336</v>
+        <v>190.4600000000002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3305,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3029,16 +3325,16 @@
         <v>190</v>
       </c>
       <c r="D76" t="n">
-        <v>190.3</v>
+        <v>190</v>
       </c>
       <c r="E76" t="n">
         <v>190</v>
       </c>
       <c r="F76" t="n">
-        <v>1914.4593</v>
+        <v>412</v>
       </c>
       <c r="G76" t="n">
-        <v>190.4933333333335</v>
+        <v>190.4683333333336</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3344,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3061,19 +3361,19 @@
         <v>190</v>
       </c>
       <c r="C77" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D77" t="n">
-        <v>192</v>
+        <v>190.3</v>
       </c>
       <c r="E77" t="n">
-        <v>189.8</v>
+        <v>190</v>
       </c>
       <c r="F77" t="n">
-        <v>8116.3065</v>
+        <v>1914.4593</v>
       </c>
       <c r="G77" t="n">
-        <v>190.5583333333335</v>
+        <v>190.4933333333335</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3383,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3397,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="C78" t="n">
-        <v>190.4</v>
+        <v>192</v>
       </c>
       <c r="D78" t="n">
-        <v>190.4</v>
+        <v>192</v>
       </c>
       <c r="E78" t="n">
-        <v>190.4</v>
+        <v>189.8</v>
       </c>
       <c r="F78" t="n">
-        <v>2520.7532</v>
+        <v>8116.3065</v>
       </c>
       <c r="G78" t="n">
-        <v>190.5950000000002</v>
+        <v>190.5583333333335</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3422,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3140,10 +3448,10 @@
         <v>190.4</v>
       </c>
       <c r="F79" t="n">
-        <v>250</v>
+        <v>2520.7532</v>
       </c>
       <c r="G79" t="n">
-        <v>190.6066666666669</v>
+        <v>190.5950000000002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3461,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3175,10 +3487,10 @@
         <v>190.4</v>
       </c>
       <c r="F80" t="n">
-        <v>367.353</v>
+        <v>250</v>
       </c>
       <c r="G80" t="n">
-        <v>190.6216666666668</v>
+        <v>190.6066666666669</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3500,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3514,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>191.7</v>
+        <v>190.4</v>
       </c>
       <c r="C81" t="n">
-        <v>191.7</v>
+        <v>190.4</v>
       </c>
       <c r="D81" t="n">
-        <v>192.1</v>
+        <v>190.4</v>
       </c>
       <c r="E81" t="n">
-        <v>191.7</v>
+        <v>190.4</v>
       </c>
       <c r="F81" t="n">
-        <v>1434.2775</v>
+        <v>367.353</v>
       </c>
       <c r="G81" t="n">
-        <v>190.6600000000002</v>
+        <v>190.6216666666668</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3539,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3553,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>191.7</v>
+      </c>
+      <c r="C82" t="n">
+        <v>191.7</v>
+      </c>
+      <c r="D82" t="n">
         <v>192.1</v>
       </c>
-      <c r="C82" t="n">
-        <v>192.7</v>
-      </c>
-      <c r="D82" t="n">
-        <v>192.7</v>
-      </c>
       <c r="E82" t="n">
-        <v>192.1</v>
+        <v>191.7</v>
       </c>
       <c r="F82" t="n">
-        <v>1357.0557</v>
+        <v>1434.2775</v>
       </c>
       <c r="G82" t="n">
-        <v>190.7183333333335</v>
+        <v>190.6600000000002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3578,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3592,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>192.9</v>
+        <v>192.1</v>
       </c>
       <c r="C83" t="n">
-        <v>194.7</v>
+        <v>192.7</v>
       </c>
       <c r="D83" t="n">
-        <v>194.7</v>
+        <v>192.7</v>
       </c>
       <c r="E83" t="n">
-        <v>192.9</v>
+        <v>192.1</v>
       </c>
       <c r="F83" t="n">
-        <v>6378.7053861325</v>
+        <v>1357.0557</v>
       </c>
       <c r="G83" t="n">
-        <v>190.7866666666669</v>
+        <v>190.7183333333335</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3617,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3631,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>194.8</v>
+        <v>192.9</v>
       </c>
       <c r="C84" t="n">
-        <v>194.8</v>
+        <v>194.7</v>
       </c>
       <c r="D84" t="n">
-        <v>194.8</v>
+        <v>194.7</v>
       </c>
       <c r="E84" t="n">
-        <v>194.8</v>
+        <v>192.9</v>
       </c>
       <c r="F84" t="n">
-        <v>3901.3272</v>
+        <v>6378.7053861325</v>
       </c>
       <c r="G84" t="n">
-        <v>190.8550000000002</v>
+        <v>190.7866666666669</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3656,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3670,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>192.5</v>
+        <v>194.8</v>
       </c>
       <c r="C85" t="n">
-        <v>191.4</v>
+        <v>194.8</v>
       </c>
       <c r="D85" t="n">
-        <v>192.5</v>
+        <v>194.8</v>
       </c>
       <c r="E85" t="n">
-        <v>191.4</v>
+        <v>194.8</v>
       </c>
       <c r="F85" t="n">
-        <v>5633.7053</v>
+        <v>3901.3272</v>
       </c>
       <c r="G85" t="n">
-        <v>190.8666666666668</v>
+        <v>190.8550000000002</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3695,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3709,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>194</v>
+        <v>192.5</v>
       </c>
       <c r="C86" t="n">
-        <v>194</v>
+        <v>191.4</v>
       </c>
       <c r="D86" t="n">
-        <v>194</v>
+        <v>192.5</v>
       </c>
       <c r="E86" t="n">
-        <v>194</v>
+        <v>191.4</v>
       </c>
       <c r="F86" t="n">
-        <v>22.6326</v>
+        <v>5633.7053</v>
       </c>
       <c r="G86" t="n">
-        <v>190.9216666666668</v>
+        <v>190.8666666666668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,32 +3734,34 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>194.6</v>
+        <v>194</v>
       </c>
       <c r="C87" t="n">
-        <v>192.8</v>
+        <v>194</v>
       </c>
       <c r="D87" t="n">
-        <v>194.6</v>
+        <v>194</v>
       </c>
       <c r="E87" t="n">
-        <v>192.8</v>
+        <v>194</v>
       </c>
       <c r="F87" t="n">
-        <v>4868.4152</v>
+        <v>22.6326</v>
       </c>
       <c r="G87" t="n">
-        <v>190.9550000000001</v>
+        <v>190.9216666666668</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3781,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>192.7</v>
+        <v>194.6</v>
       </c>
       <c r="C88" t="n">
-        <v>192.7</v>
+        <v>192.8</v>
       </c>
       <c r="D88" t="n">
-        <v>192.7</v>
+        <v>194.6</v>
       </c>
       <c r="E88" t="n">
-        <v>192.7</v>
+        <v>192.8</v>
       </c>
       <c r="F88" t="n">
-        <v>4648.2078</v>
+        <v>4868.4152</v>
       </c>
       <c r="G88" t="n">
-        <v>190.9800000000001</v>
+        <v>190.9550000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,28 +3816,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>192.6</v>
+        <v>192.7</v>
       </c>
       <c r="C89" t="n">
-        <v>192.6</v>
+        <v>192.7</v>
       </c>
       <c r="D89" t="n">
-        <v>192.6</v>
+        <v>192.7</v>
       </c>
       <c r="E89" t="n">
-        <v>192.6</v>
+        <v>192.7</v>
       </c>
       <c r="F89" t="n">
-        <v>2730.7964</v>
+        <v>4648.2078</v>
       </c>
       <c r="G89" t="n">
-        <v>191.0016666666668</v>
+        <v>190.9800000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3513,28 +3851,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>192.5</v>
+        <v>192.6</v>
       </c>
       <c r="C90" t="n">
-        <v>192.5</v>
+        <v>192.6</v>
       </c>
       <c r="D90" t="n">
-        <v>192.5</v>
+        <v>192.6</v>
       </c>
       <c r="E90" t="n">
-        <v>192.5</v>
+        <v>192.6</v>
       </c>
       <c r="F90" t="n">
-        <v>2659.9436</v>
+        <v>2730.7964</v>
       </c>
       <c r="G90" t="n">
-        <v>191.0216666666668</v>
+        <v>191.0016666666668</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3548,28 +3886,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>193.9</v>
+        <v>192.5</v>
       </c>
       <c r="C91" t="n">
-        <v>193.9</v>
+        <v>192.5</v>
       </c>
       <c r="D91" t="n">
-        <v>193.9</v>
+        <v>192.5</v>
       </c>
       <c r="E91" t="n">
-        <v>193.9</v>
+        <v>192.5</v>
       </c>
       <c r="F91" t="n">
-        <v>2.6</v>
+        <v>2659.9436</v>
       </c>
       <c r="G91" t="n">
-        <v>191.0700000000002</v>
+        <v>191.0216666666668</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3595,10 +3933,10 @@
         <v>193.9</v>
       </c>
       <c r="F92" t="n">
-        <v>1728.3513</v>
+        <v>2.6</v>
       </c>
       <c r="G92" t="n">
-        <v>191.1183333333335</v>
+        <v>191.0700000000002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3956,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>193.5</v>
+        <v>193.9</v>
       </c>
       <c r="C93" t="n">
-        <v>193.5</v>
+        <v>193.9</v>
       </c>
       <c r="D93" t="n">
-        <v>193.5</v>
+        <v>193.9</v>
       </c>
       <c r="E93" t="n">
-        <v>193.5</v>
+        <v>193.9</v>
       </c>
       <c r="F93" t="n">
-        <v>201</v>
+        <v>1728.3513</v>
       </c>
       <c r="G93" t="n">
-        <v>191.1600000000002</v>
+        <v>191.1183333333335</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3991,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>194</v>
+        <v>193.5</v>
       </c>
       <c r="C94" t="n">
-        <v>194</v>
+        <v>193.5</v>
       </c>
       <c r="D94" t="n">
-        <v>194</v>
+        <v>193.5</v>
       </c>
       <c r="E94" t="n">
-        <v>194</v>
+        <v>193.5</v>
       </c>
       <c r="F94" t="n">
-        <v>421.6357</v>
+        <v>201</v>
       </c>
       <c r="G94" t="n">
-        <v>191.2266666666668</v>
+        <v>191.1600000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +4038,10 @@
         <v>194</v>
       </c>
       <c r="F95" t="n">
-        <v>327.7727</v>
+        <v>421.6357</v>
       </c>
       <c r="G95" t="n">
-        <v>191.2933333333335</v>
+        <v>191.2266666666668</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +4073,10 @@
         <v>194</v>
       </c>
       <c r="F96" t="n">
-        <v>1890.3374</v>
+        <v>327.7727</v>
       </c>
       <c r="G96" t="n">
-        <v>191.3516666666668</v>
+        <v>191.2933333333335</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +4108,10 @@
         <v>194</v>
       </c>
       <c r="F97" t="n">
-        <v>2600</v>
+        <v>1890.3374</v>
       </c>
       <c r="G97" t="n">
-        <v>191.4183333333335</v>
+        <v>191.3516666666668</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +4131,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>193.2</v>
+        <v>194</v>
       </c>
       <c r="C98" t="n">
-        <v>193.2</v>
+        <v>194</v>
       </c>
       <c r="D98" t="n">
-        <v>193.2</v>
+        <v>194</v>
       </c>
       <c r="E98" t="n">
-        <v>193.2</v>
+        <v>194</v>
       </c>
       <c r="F98" t="n">
-        <v>5310.2199</v>
+        <v>2600</v>
       </c>
       <c r="G98" t="n">
-        <v>191.4716666666668</v>
+        <v>191.4183333333335</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +4166,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>194</v>
+        <v>193.2</v>
       </c>
       <c r="C99" t="n">
-        <v>194.5</v>
+        <v>193.2</v>
       </c>
       <c r="D99" t="n">
-        <v>194.5</v>
+        <v>193.2</v>
       </c>
       <c r="E99" t="n">
-        <v>194</v>
+        <v>193.2</v>
       </c>
       <c r="F99" t="n">
-        <v>3542.7727</v>
+        <v>5310.2199</v>
       </c>
       <c r="G99" t="n">
-        <v>191.5383333333335</v>
+        <v>191.4716666666668</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,7 +4201,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>194.5</v>
+        <v>194</v>
       </c>
       <c r="C100" t="n">
         <v>194.5</v>
@@ -3872,13 +4210,13 @@
         <v>194.5</v>
       </c>
       <c r="E100" t="n">
-        <v>194.5</v>
+        <v>194</v>
       </c>
       <c r="F100" t="n">
-        <v>222.0666</v>
+        <v>3542.7727</v>
       </c>
       <c r="G100" t="n">
-        <v>191.6050000000002</v>
+        <v>191.5383333333335</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +4236,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>193.3</v>
+        <v>194.5</v>
       </c>
       <c r="C101" t="n">
-        <v>193.3</v>
+        <v>194.5</v>
       </c>
       <c r="D101" t="n">
-        <v>193.3</v>
+        <v>194.5</v>
       </c>
       <c r="E101" t="n">
-        <v>193.3</v>
+        <v>194.5</v>
       </c>
       <c r="F101" t="n">
-        <v>2.5867</v>
+        <v>222.0666</v>
       </c>
       <c r="G101" t="n">
-        <v>191.6400000000002</v>
+        <v>191.6050000000002</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +4271,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>193.2</v>
+        <v>193.3</v>
       </c>
       <c r="C102" t="n">
-        <v>193</v>
+        <v>193.3</v>
       </c>
       <c r="D102" t="n">
-        <v>193.2</v>
+        <v>193.3</v>
       </c>
       <c r="E102" t="n">
-        <v>193</v>
+        <v>193.3</v>
       </c>
       <c r="F102" t="n">
-        <v>4144.3318</v>
+        <v>2.5867</v>
       </c>
       <c r="G102" t="n">
-        <v>191.6650000000001</v>
+        <v>191.6400000000002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +4306,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>192.5</v>
+        <v>193.2</v>
       </c>
       <c r="C103" t="n">
         <v>193</v>
       </c>
       <c r="D103" t="n">
+        <v>193.2</v>
+      </c>
+      <c r="E103" t="n">
         <v>193</v>
       </c>
-      <c r="E103" t="n">
-        <v>192.3</v>
-      </c>
       <c r="F103" t="n">
-        <v>7210</v>
+        <v>4144.3318</v>
       </c>
       <c r="G103" t="n">
-        <v>191.7216666666668</v>
+        <v>191.6650000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4341,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="C104" t="n">
         <v>193</v>
       </c>
-      <c r="C104" t="n">
-        <v>193.3</v>
-      </c>
       <c r="D104" t="n">
-        <v>193.3</v>
+        <v>193</v>
       </c>
       <c r="E104" t="n">
-        <v>193</v>
+        <v>192.3</v>
       </c>
       <c r="F104" t="n">
-        <v>6663.2096</v>
+        <v>7210</v>
       </c>
       <c r="G104" t="n">
-        <v>191.7600000000001</v>
+        <v>191.7216666666668</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,7 +4376,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>193.3</v>
+        <v>193</v>
       </c>
       <c r="C105" t="n">
         <v>193.3</v>
@@ -4047,13 +4385,13 @@
         <v>193.3</v>
       </c>
       <c r="E105" t="n">
-        <v>193.3</v>
+        <v>193</v>
       </c>
       <c r="F105" t="n">
-        <v>281.0843</v>
+        <v>6663.2096</v>
       </c>
       <c r="G105" t="n">
-        <v>191.8133333333334</v>
+        <v>191.7600000000001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4423,10 @@
         <v>193.3</v>
       </c>
       <c r="F106" t="n">
-        <v>1032.0809</v>
+        <v>281.0843</v>
       </c>
       <c r="G106" t="n">
-        <v>191.8466666666668</v>
+        <v>191.8133333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4446,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>192.6</v>
+        <v>193.3</v>
       </c>
       <c r="C107" t="n">
-        <v>192.2</v>
+        <v>193.3</v>
       </c>
       <c r="D107" t="n">
-        <v>192.6</v>
+        <v>193.3</v>
       </c>
       <c r="E107" t="n">
-        <v>192.2</v>
+        <v>193.3</v>
       </c>
       <c r="F107" t="n">
-        <v>6412.5267</v>
+        <v>1032.0809</v>
       </c>
       <c r="G107" t="n">
-        <v>191.8650000000001</v>
+        <v>191.8466666666668</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4481,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>193.3</v>
+        <v>192.6</v>
       </c>
       <c r="C108" t="n">
-        <v>193.3</v>
+        <v>192.2</v>
       </c>
       <c r="D108" t="n">
-        <v>193.3</v>
+        <v>192.6</v>
       </c>
       <c r="E108" t="n">
-        <v>193.3</v>
+        <v>192.2</v>
       </c>
       <c r="F108" t="n">
-        <v>472.2101</v>
+        <v>6412.5267</v>
       </c>
       <c r="G108" t="n">
-        <v>191.9016666666668</v>
+        <v>191.8650000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4519,19 @@
         <v>193.3</v>
       </c>
       <c r="C109" t="n">
-        <v>193.7</v>
+        <v>193.3</v>
       </c>
       <c r="D109" t="n">
-        <v>193.7</v>
+        <v>193.3</v>
       </c>
       <c r="E109" t="n">
         <v>193.3</v>
       </c>
       <c r="F109" t="n">
-        <v>1969.5282</v>
+        <v>472.2101</v>
       </c>
       <c r="G109" t="n">
-        <v>191.9450000000001</v>
+        <v>191.9016666666668</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,7 +4551,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>193.7</v>
+        <v>193.3</v>
       </c>
       <c r="C110" t="n">
         <v>193.7</v>
@@ -4222,13 +4560,13 @@
         <v>193.7</v>
       </c>
       <c r="E110" t="n">
-        <v>193.7</v>
+        <v>193.3</v>
       </c>
       <c r="F110" t="n">
-        <v>26.9859</v>
+        <v>1969.5282</v>
       </c>
       <c r="G110" t="n">
-        <v>191.9883333333334</v>
+        <v>191.9450000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4586,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>193.3</v>
+        <v>193.7</v>
       </c>
       <c r="C111" t="n">
-        <v>193.3</v>
+        <v>193.7</v>
       </c>
       <c r="D111" t="n">
-        <v>193.3</v>
+        <v>193.7</v>
       </c>
       <c r="E111" t="n">
-        <v>193.3</v>
+        <v>193.7</v>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>26.9859</v>
       </c>
       <c r="G111" t="n">
-        <v>192.0483333333334</v>
+        <v>191.9883333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4633,10 @@
         <v>193.3</v>
       </c>
       <c r="F112" t="n">
-        <v>213.6471</v>
+        <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>192.1083333333334</v>
+        <v>192.0483333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4656,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>193.2</v>
+        <v>193.3</v>
       </c>
       <c r="C113" t="n">
-        <v>193.7</v>
+        <v>193.3</v>
       </c>
       <c r="D113" t="n">
-        <v>193.7</v>
+        <v>193.3</v>
       </c>
       <c r="E113" t="n">
-        <v>193.2</v>
+        <v>193.3</v>
       </c>
       <c r="F113" t="n">
-        <v>3153.3419</v>
+        <v>213.6471</v>
       </c>
       <c r="G113" t="n">
-        <v>192.1533333333334</v>
+        <v>192.1083333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,7 +4691,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>193.7</v>
+        <v>193.2</v>
       </c>
       <c r="C114" t="n">
         <v>193.7</v>
@@ -4362,13 +4700,13 @@
         <v>193.7</v>
       </c>
       <c r="E114" t="n">
-        <v>193.7</v>
+        <v>193.2</v>
       </c>
       <c r="F114" t="n">
-        <v>250</v>
+        <v>3153.3419</v>
       </c>
       <c r="G114" t="n">
-        <v>192.1950000000001</v>
+        <v>192.1533333333334</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4726,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>193.3</v>
+        <v>193.7</v>
       </c>
       <c r="C115" t="n">
-        <v>193.3</v>
+        <v>193.7</v>
       </c>
       <c r="D115" t="n">
-        <v>193.3</v>
+        <v>193.7</v>
       </c>
       <c r="E115" t="n">
-        <v>193.3</v>
+        <v>193.7</v>
       </c>
       <c r="F115" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G115" t="n">
-        <v>192.2283333333334</v>
+        <v>192.1950000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4773,10 @@
         <v>193.3</v>
       </c>
       <c r="F116" t="n">
-        <v>1373.5756</v>
+        <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>192.2616666666667</v>
+        <v>192.2283333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4796,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>193.1</v>
+        <v>193.3</v>
       </c>
       <c r="C117" t="n">
-        <v>193.1</v>
+        <v>193.3</v>
       </c>
       <c r="D117" t="n">
-        <v>193.1</v>
+        <v>193.3</v>
       </c>
       <c r="E117" t="n">
-        <v>193.1</v>
+        <v>193.3</v>
       </c>
       <c r="F117" t="n">
-        <v>10</v>
+        <v>1373.5756</v>
       </c>
       <c r="G117" t="n">
-        <v>192.3083333333334</v>
+        <v>192.2616666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4831,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>192</v>
+        <v>193.1</v>
       </c>
       <c r="C118" t="n">
-        <v>192</v>
+        <v>193.1</v>
       </c>
       <c r="D118" t="n">
-        <v>192</v>
+        <v>193.1</v>
       </c>
       <c r="E118" t="n">
-        <v>192</v>
+        <v>193.1</v>
       </c>
       <c r="F118" t="n">
-        <v>102.6968</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>192.3366666666668</v>
+        <v>192.3083333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4866,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>193.1</v>
+        <v>192</v>
       </c>
       <c r="C119" t="n">
-        <v>193.1</v>
+        <v>192</v>
       </c>
       <c r="D119" t="n">
-        <v>193.1</v>
+        <v>192</v>
       </c>
       <c r="E119" t="n">
-        <v>193.1</v>
+        <v>192</v>
       </c>
       <c r="F119" t="n">
-        <v>10</v>
+        <v>102.6968</v>
       </c>
       <c r="G119" t="n">
-        <v>192.3866666666668</v>
+        <v>192.3366666666668</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4913,10 @@
         <v>193.1</v>
       </c>
       <c r="F120" t="n">
-        <v>515.1545</v>
+        <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>192.4350000000001</v>
+        <v>192.3866666666668</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4936,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>192</v>
+        <v>193.1</v>
       </c>
       <c r="C121" t="n">
-        <v>191.9</v>
+        <v>193.1</v>
       </c>
       <c r="D121" t="n">
-        <v>192</v>
+        <v>193.1</v>
       </c>
       <c r="E121" t="n">
-        <v>191.9</v>
+        <v>193.1</v>
       </c>
       <c r="F121" t="n">
-        <v>2414.533</v>
+        <v>515.1545</v>
       </c>
       <c r="G121" t="n">
-        <v>192.4633333333334</v>
+        <v>192.4350000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4971,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>191.8</v>
+        <v>192</v>
       </c>
       <c r="C122" t="n">
-        <v>193.1</v>
+        <v>191.9</v>
       </c>
       <c r="D122" t="n">
-        <v>193.1</v>
+        <v>192</v>
       </c>
       <c r="E122" t="n">
-        <v>190.4</v>
+        <v>191.9</v>
       </c>
       <c r="F122" t="n">
-        <v>50248</v>
+        <v>2414.533</v>
       </c>
       <c r="G122" t="n">
-        <v>192.5116666666667</v>
+        <v>192.4633333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +5006,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>191.2</v>
+        <v>191.8</v>
       </c>
       <c r="C123" t="n">
-        <v>191.2</v>
+        <v>193.1</v>
       </c>
       <c r="D123" t="n">
-        <v>191.2</v>
+        <v>193.1</v>
       </c>
       <c r="E123" t="n">
-        <v>191.2</v>
+        <v>190.4</v>
       </c>
       <c r="F123" t="n">
-        <v>10818.374</v>
+        <v>50248</v>
       </c>
       <c r="G123" t="n">
-        <v>192.5266666666668</v>
+        <v>192.5116666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4715,10 +5053,10 @@
         <v>191.2</v>
       </c>
       <c r="F124" t="n">
-        <v>105.0671</v>
+        <v>10818.374</v>
       </c>
       <c r="G124" t="n">
-        <v>192.5250000000001</v>
+        <v>192.5266666666668</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4750,10 +5088,10 @@
         <v>191.2</v>
       </c>
       <c r="F125" t="n">
-        <v>2988.8762</v>
+        <v>105.0671</v>
       </c>
       <c r="G125" t="n">
-        <v>192.5233333333335</v>
+        <v>192.5250000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,10 +5123,10 @@
         <v>191.2</v>
       </c>
       <c r="F126" t="n">
-        <v>11</v>
+        <v>2988.8762</v>
       </c>
       <c r="G126" t="n">
-        <v>192.5350000000002</v>
+        <v>192.5233333333335</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +5146,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>190.5</v>
+        <v>191.2</v>
       </c>
       <c r="C127" t="n">
-        <v>190.4</v>
+        <v>191.2</v>
       </c>
       <c r="D127" t="n">
-        <v>190.5</v>
+        <v>191.2</v>
       </c>
       <c r="E127" t="n">
-        <v>190.4</v>
+        <v>191.2</v>
       </c>
       <c r="F127" t="n">
-        <v>10674.4808</v>
+        <v>11</v>
       </c>
       <c r="G127" t="n">
-        <v>192.5250000000001</v>
+        <v>192.5350000000002</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +5181,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="C128" t="n">
-        <v>191</v>
+        <v>190.4</v>
       </c>
       <c r="D128" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="E128" t="n">
-        <v>191</v>
+        <v>190.4</v>
       </c>
       <c r="F128" t="n">
-        <v>505.5616</v>
+        <v>10674.4808</v>
       </c>
       <c r="G128" t="n">
-        <v>192.5083333333335</v>
+        <v>192.5250000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4881,19 +5219,19 @@
         <v>191.1</v>
       </c>
       <c r="C129" t="n">
-        <v>191.1</v>
+        <v>191</v>
       </c>
       <c r="D129" t="n">
         <v>191.1</v>
       </c>
       <c r="E129" t="n">
-        <v>191.1</v>
+        <v>191</v>
       </c>
       <c r="F129" t="n">
-        <v>650.4541</v>
+        <v>505.5616</v>
       </c>
       <c r="G129" t="n">
-        <v>192.5100000000002</v>
+        <v>192.5083333333335</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +5251,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>191.2</v>
+        <v>191.1</v>
       </c>
       <c r="C130" t="n">
-        <v>191.2</v>
+        <v>191.1</v>
       </c>
       <c r="D130" t="n">
-        <v>191.2</v>
+        <v>191.1</v>
       </c>
       <c r="E130" t="n">
-        <v>191.2</v>
+        <v>191.1</v>
       </c>
       <c r="F130" t="n">
-        <v>480.1238</v>
+        <v>650.4541</v>
       </c>
       <c r="G130" t="n">
-        <v>192.5283333333335</v>
+        <v>192.5100000000002</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +5286,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>191.6</v>
+        <v>191.2</v>
       </c>
       <c r="C131" t="n">
-        <v>191.6</v>
+        <v>191.2</v>
       </c>
       <c r="D131" t="n">
-        <v>191.6</v>
+        <v>191.2</v>
       </c>
       <c r="E131" t="n">
-        <v>191.6</v>
+        <v>191.2</v>
       </c>
       <c r="F131" t="n">
-        <v>351</v>
+        <v>480.1238</v>
       </c>
       <c r="G131" t="n">
-        <v>192.5533333333335</v>
+        <v>192.5283333333335</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4986,19 +5324,19 @@
         <v>191.6</v>
       </c>
       <c r="C132" t="n">
-        <v>192.9</v>
+        <v>191.6</v>
       </c>
       <c r="D132" t="n">
-        <v>192.9</v>
+        <v>191.6</v>
       </c>
       <c r="E132" t="n">
-        <v>191.5</v>
+        <v>191.6</v>
       </c>
       <c r="F132" t="n">
-        <v>5771.659</v>
+        <v>351</v>
       </c>
       <c r="G132" t="n">
-        <v>192.5766666666668</v>
+        <v>192.5533333333335</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5356,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>191.9</v>
+        <v>191.6</v>
       </c>
       <c r="C133" t="n">
-        <v>192</v>
+        <v>192.9</v>
       </c>
       <c r="D133" t="n">
-        <v>192</v>
+        <v>192.9</v>
       </c>
       <c r="E133" t="n">
-        <v>191.7</v>
+        <v>191.5</v>
       </c>
       <c r="F133" t="n">
-        <v>4070.4048</v>
+        <v>5771.659</v>
       </c>
       <c r="G133" t="n">
-        <v>192.6100000000002</v>
+        <v>192.5766666666668</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,10 +5391,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="C134" t="n">
         <v>192</v>
-      </c>
-      <c r="C134" t="n">
-        <v>191.7</v>
       </c>
       <c r="D134" t="n">
         <v>192</v>
@@ -5065,10 +5403,10 @@
         <v>191.7</v>
       </c>
       <c r="F134" t="n">
-        <v>10010</v>
+        <v>4070.4048</v>
       </c>
       <c r="G134" t="n">
-        <v>192.6383333333335</v>
+        <v>192.6100000000002</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5426,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>191.4</v>
+        <v>192</v>
       </c>
       <c r="C135" t="n">
-        <v>191.4</v>
+        <v>191.7</v>
       </c>
       <c r="D135" t="n">
-        <v>191.4</v>
+        <v>192</v>
       </c>
       <c r="E135" t="n">
-        <v>191.4</v>
+        <v>191.7</v>
       </c>
       <c r="F135" t="n">
-        <v>3.1188</v>
+        <v>10010</v>
       </c>
       <c r="G135" t="n">
-        <v>192.6616666666668</v>
+        <v>192.6383333333335</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5126,19 +5464,19 @@
         <v>191.4</v>
       </c>
       <c r="C136" t="n">
-        <v>191.2</v>
+        <v>191.4</v>
       </c>
       <c r="D136" t="n">
         <v>191.4</v>
       </c>
       <c r="E136" t="n">
-        <v>191.2</v>
+        <v>191.4</v>
       </c>
       <c r="F136" t="n">
-        <v>10000</v>
+        <v>3.1188</v>
       </c>
       <c r="G136" t="n">
-        <v>192.6816666666668</v>
+        <v>192.6616666666668</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5496,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>191.2</v>
+        <v>191.4</v>
       </c>
       <c r="C137" t="n">
         <v>191.2</v>
       </c>
       <c r="D137" t="n">
-        <v>191.2</v>
+        <v>191.4</v>
       </c>
       <c r="E137" t="n">
         <v>191.2</v>
       </c>
       <c r="F137" t="n">
-        <v>308.3601</v>
+        <v>10000</v>
       </c>
       <c r="G137" t="n">
-        <v>192.6683333333335</v>
+        <v>192.6816666666668</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5196,19 +5534,19 @@
         <v>191.2</v>
       </c>
       <c r="C138" t="n">
-        <v>192.3</v>
+        <v>191.2</v>
       </c>
       <c r="D138" t="n">
-        <v>192.3</v>
+        <v>191.2</v>
       </c>
       <c r="E138" t="n">
         <v>191.2</v>
       </c>
       <c r="F138" t="n">
-        <v>7305</v>
+        <v>308.3601</v>
       </c>
       <c r="G138" t="n">
-        <v>192.7000000000002</v>
+        <v>192.6683333333335</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5566,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>190.6</v>
+        <v>191.2</v>
       </c>
       <c r="C139" t="n">
-        <v>190.6</v>
+        <v>192.3</v>
       </c>
       <c r="D139" t="n">
-        <v>190.6</v>
+        <v>192.3</v>
       </c>
       <c r="E139" t="n">
-        <v>190.6</v>
+        <v>191.2</v>
       </c>
       <c r="F139" t="n">
-        <v>7098.8114</v>
+        <v>7305</v>
       </c>
       <c r="G139" t="n">
-        <v>192.7033333333335</v>
+        <v>192.7000000000002</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5266,19 +5604,19 @@
         <v>190.6</v>
       </c>
       <c r="C140" t="n">
-        <v>192.1</v>
+        <v>190.6</v>
       </c>
       <c r="D140" t="n">
-        <v>192.1</v>
+        <v>190.6</v>
       </c>
       <c r="E140" t="n">
         <v>190.6</v>
       </c>
       <c r="F140" t="n">
-        <v>60</v>
+        <v>7098.8114</v>
       </c>
       <c r="G140" t="n">
-        <v>192.7316666666669</v>
+        <v>192.7033333333335</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5636,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>191</v>
+        <v>190.6</v>
       </c>
       <c r="C141" t="n">
-        <v>191</v>
+        <v>192.1</v>
       </c>
       <c r="D141" t="n">
-        <v>191</v>
+        <v>192.1</v>
       </c>
       <c r="E141" t="n">
-        <v>191</v>
+        <v>190.6</v>
       </c>
       <c r="F141" t="n">
-        <v>253.79</v>
+        <v>60</v>
       </c>
       <c r="G141" t="n">
-        <v>192.7200000000002</v>
+        <v>192.7316666666669</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5671,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>192.6</v>
+        <v>191</v>
       </c>
       <c r="C142" t="n">
-        <v>192.6</v>
+        <v>191</v>
       </c>
       <c r="D142" t="n">
-        <v>192.6</v>
+        <v>191</v>
       </c>
       <c r="E142" t="n">
-        <v>192.6</v>
+        <v>191</v>
       </c>
       <c r="F142" t="n">
-        <v>2.6</v>
+        <v>253.79</v>
       </c>
       <c r="G142" t="n">
-        <v>192.7183333333335</v>
+        <v>192.7200000000002</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5706,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>191.9</v>
+        <v>192.6</v>
       </c>
       <c r="C143" t="n">
-        <v>191.9</v>
+        <v>192.6</v>
       </c>
       <c r="D143" t="n">
-        <v>191.9</v>
+        <v>192.6</v>
       </c>
       <c r="E143" t="n">
-        <v>191.9</v>
+        <v>192.6</v>
       </c>
       <c r="F143" t="n">
-        <v>52</v>
+        <v>2.6</v>
       </c>
       <c r="G143" t="n">
-        <v>192.6716666666668</v>
+        <v>192.7183333333335</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5415,10 +5753,10 @@
         <v>191.9</v>
       </c>
       <c r="F144" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="G144" t="n">
-        <v>192.6233333333335</v>
+        <v>192.6716666666668</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5776,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>190.9</v>
+        <v>191.9</v>
       </c>
       <c r="C145" t="n">
-        <v>190.2</v>
+        <v>191.9</v>
       </c>
       <c r="D145" t="n">
-        <v>190.9</v>
+        <v>191.9</v>
       </c>
       <c r="E145" t="n">
-        <v>190.2</v>
+        <v>191.9</v>
       </c>
       <c r="F145" t="n">
-        <v>14262.0357</v>
+        <v>24</v>
       </c>
       <c r="G145" t="n">
-        <v>192.6033333333335</v>
+        <v>192.6233333333335</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5811,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>190.8</v>
+        <v>190.9</v>
       </c>
       <c r="C146" t="n">
-        <v>190.8</v>
+        <v>190.2</v>
       </c>
       <c r="D146" t="n">
-        <v>190.8</v>
+        <v>190.9</v>
       </c>
       <c r="E146" t="n">
-        <v>190.8</v>
+        <v>190.2</v>
       </c>
       <c r="F146" t="n">
-        <v>7993.789</v>
+        <v>14262.0357</v>
       </c>
       <c r="G146" t="n">
-        <v>192.5500000000002</v>
+        <v>192.6033333333335</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5846,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>190.1</v>
+        <v>190.8</v>
       </c>
       <c r="C147" t="n">
-        <v>189.8</v>
+        <v>190.8</v>
       </c>
       <c r="D147" t="n">
-        <v>190.1</v>
+        <v>190.8</v>
       </c>
       <c r="E147" t="n">
-        <v>189.8</v>
+        <v>190.8</v>
       </c>
       <c r="F147" t="n">
-        <v>7000</v>
+        <v>7993.789</v>
       </c>
       <c r="G147" t="n">
-        <v>192.5000000000002</v>
+        <v>192.5500000000002</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5881,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>191.7</v>
+        <v>190.1</v>
       </c>
       <c r="C148" t="n">
-        <v>191.7</v>
+        <v>189.8</v>
       </c>
       <c r="D148" t="n">
-        <v>191.7</v>
+        <v>190.1</v>
       </c>
       <c r="E148" t="n">
-        <v>191.7</v>
+        <v>189.8</v>
       </c>
       <c r="F148" t="n">
-        <v>416.2754303599</v>
+        <v>7000</v>
       </c>
       <c r="G148" t="n">
-        <v>192.4833333333335</v>
+        <v>192.5000000000002</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5916,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>190</v>
+        <v>191.7</v>
       </c>
       <c r="C149" t="n">
-        <v>191.4</v>
+        <v>191.7</v>
       </c>
       <c r="D149" t="n">
-        <v>191.4</v>
+        <v>191.7</v>
       </c>
       <c r="E149" t="n">
-        <v>190</v>
+        <v>191.7</v>
       </c>
       <c r="F149" t="n">
-        <v>1754.2506</v>
+        <v>416.2754303599</v>
       </c>
       <c r="G149" t="n">
-        <v>192.4633333333335</v>
+        <v>192.4833333333335</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5951,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>189.7</v>
+        <v>190</v>
       </c>
       <c r="C150" t="n">
-        <v>189.7</v>
+        <v>191.4</v>
       </c>
       <c r="D150" t="n">
-        <v>189.7</v>
+        <v>191.4</v>
       </c>
       <c r="E150" t="n">
-        <v>189.7</v>
+        <v>190</v>
       </c>
       <c r="F150" t="n">
-        <v>10002.6358</v>
+        <v>1754.2506</v>
       </c>
       <c r="G150" t="n">
-        <v>192.4166666666669</v>
+        <v>192.4633333333335</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5660,10 +5998,10 @@
         <v>189.7</v>
       </c>
       <c r="F151" t="n">
-        <v>2438.6409</v>
+        <v>10002.6358</v>
       </c>
       <c r="G151" t="n">
-        <v>192.3466666666669</v>
+        <v>192.4166666666669</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +6021,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>190.8</v>
+        <v>189.7</v>
       </c>
       <c r="C152" t="n">
-        <v>190.8</v>
+        <v>189.7</v>
       </c>
       <c r="D152" t="n">
-        <v>190.8</v>
+        <v>189.7</v>
       </c>
       <c r="E152" t="n">
-        <v>190.8</v>
+        <v>189.7</v>
       </c>
       <c r="F152" t="n">
-        <v>252</v>
+        <v>2438.6409</v>
       </c>
       <c r="G152" t="n">
-        <v>192.2950000000002</v>
+        <v>192.3466666666669</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +6056,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>189.7</v>
+        <v>190.8</v>
       </c>
       <c r="C153" t="n">
-        <v>189.7</v>
+        <v>190.8</v>
       </c>
       <c r="D153" t="n">
-        <v>189.7</v>
+        <v>190.8</v>
       </c>
       <c r="E153" t="n">
-        <v>189.7</v>
+        <v>190.8</v>
       </c>
       <c r="F153" t="n">
-        <v>475.1444</v>
+        <v>252</v>
       </c>
       <c r="G153" t="n">
-        <v>192.2316666666669</v>
+        <v>192.2950000000002</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5765,10 +6103,10 @@
         <v>189.7</v>
       </c>
       <c r="F154" t="n">
-        <v>2524.8556</v>
+        <v>475.1444</v>
       </c>
       <c r="G154" t="n">
-        <v>192.1600000000002</v>
+        <v>192.2316666666669</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +6126,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>189.6</v>
+        <v>189.7</v>
       </c>
       <c r="C155" t="n">
-        <v>189.1</v>
+        <v>189.7</v>
       </c>
       <c r="D155" t="n">
-        <v>189.6</v>
+        <v>189.7</v>
       </c>
       <c r="E155" t="n">
-        <v>189.1</v>
+        <v>189.7</v>
       </c>
       <c r="F155" t="n">
-        <v>11240.4927</v>
+        <v>2524.8556</v>
       </c>
       <c r="G155" t="n">
-        <v>192.0783333333335</v>
+        <v>192.1600000000002</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +6161,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>189.6</v>
+      </c>
+      <c r="C156" t="n">
         <v>189.1</v>
       </c>
-      <c r="C156" t="n">
-        <v>189</v>
-      </c>
       <c r="D156" t="n">
+        <v>189.6</v>
+      </c>
+      <c r="E156" t="n">
         <v>189.1</v>
       </c>
-      <c r="E156" t="n">
-        <v>189</v>
-      </c>
       <c r="F156" t="n">
-        <v>10908.8972</v>
+        <v>11240.4927</v>
       </c>
       <c r="G156" t="n">
-        <v>191.9950000000002</v>
+        <v>192.0783333333335</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +6196,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>188.5</v>
+        <v>189.1</v>
       </c>
       <c r="C157" t="n">
-        <v>188.1</v>
+        <v>189</v>
       </c>
       <c r="D157" t="n">
-        <v>188.5</v>
+        <v>189.1</v>
       </c>
       <c r="E157" t="n">
-        <v>188.1</v>
+        <v>189</v>
       </c>
       <c r="F157" t="n">
-        <v>12112.591</v>
+        <v>10908.8972</v>
       </c>
       <c r="G157" t="n">
-        <v>191.8966666666669</v>
+        <v>191.9950000000002</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +6231,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>188</v>
+        <v>188.5</v>
       </c>
       <c r="C158" t="n">
-        <v>188</v>
+        <v>188.1</v>
       </c>
       <c r="D158" t="n">
-        <v>188</v>
+        <v>188.5</v>
       </c>
       <c r="E158" t="n">
-        <v>188</v>
+        <v>188.1</v>
       </c>
       <c r="F158" t="n">
-        <v>6840.1943</v>
+        <v>12112.591</v>
       </c>
       <c r="G158" t="n">
-        <v>191.8100000000002</v>
+        <v>191.8966666666669</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5940,10 +6278,10 @@
         <v>188</v>
       </c>
       <c r="F159" t="n">
-        <v>3506.3841</v>
+        <v>6840.1943</v>
       </c>
       <c r="G159" t="n">
-        <v>191.7016666666669</v>
+        <v>191.8100000000002</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +6301,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C160" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D160" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E160" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F160" t="n">
-        <v>80</v>
+        <v>3506.3841</v>
       </c>
       <c r="G160" t="n">
-        <v>191.6100000000002</v>
+        <v>191.7016666666669</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +6336,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>187.9</v>
+        <v>189</v>
       </c>
       <c r="C161" t="n">
-        <v>187.9</v>
+        <v>189</v>
       </c>
       <c r="D161" t="n">
-        <v>187.9</v>
+        <v>189</v>
       </c>
       <c r="E161" t="n">
-        <v>187.9</v>
+        <v>189</v>
       </c>
       <c r="F161" t="n">
-        <v>6401.3096</v>
+        <v>80</v>
       </c>
       <c r="G161" t="n">
-        <v>191.5200000000002</v>
+        <v>191.6100000000002</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6371,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>189.6</v>
+        <v>187.9</v>
       </c>
       <c r="C162" t="n">
-        <v>189.8</v>
+        <v>187.9</v>
       </c>
       <c r="D162" t="n">
-        <v>189.8</v>
+        <v>187.9</v>
       </c>
       <c r="E162" t="n">
-        <v>189.6</v>
+        <v>187.9</v>
       </c>
       <c r="F162" t="n">
-        <v>5.24</v>
+        <v>6401.3096</v>
       </c>
       <c r="G162" t="n">
-        <v>191.4666666666669</v>
+        <v>191.5200000000002</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6406,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>188.9</v>
+        <v>189.6</v>
       </c>
       <c r="C163" t="n">
-        <v>188.9</v>
+        <v>189.8</v>
       </c>
       <c r="D163" t="n">
-        <v>188.9</v>
+        <v>189.8</v>
       </c>
       <c r="E163" t="n">
-        <v>188.9</v>
+        <v>189.6</v>
       </c>
       <c r="F163" t="n">
-        <v>479.9999</v>
+        <v>5.24</v>
       </c>
       <c r="G163" t="n">
-        <v>191.3983333333335</v>
+        <v>191.4666666666669</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6441,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>189</v>
+        <v>188.9</v>
       </c>
       <c r="C164" t="n">
-        <v>189</v>
+        <v>188.9</v>
       </c>
       <c r="D164" t="n">
-        <v>189</v>
+        <v>188.9</v>
       </c>
       <c r="E164" t="n">
-        <v>189</v>
+        <v>188.9</v>
       </c>
       <c r="F164" t="n">
-        <v>159.7976</v>
+        <v>479.9999</v>
       </c>
       <c r="G164" t="n">
-        <v>191.3266666666669</v>
+        <v>191.3983333333335</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,10 +6488,10 @@
         <v>189</v>
       </c>
       <c r="F165" t="n">
-        <v>1211.7984</v>
+        <v>159.7976</v>
       </c>
       <c r="G165" t="n">
-        <v>191.2550000000002</v>
+        <v>191.3266666666669</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6185,10 +6523,10 @@
         <v>189</v>
       </c>
       <c r="F166" t="n">
-        <v>3720.0728</v>
+        <v>1211.7984</v>
       </c>
       <c r="G166" t="n">
-        <v>191.1833333333336</v>
+        <v>191.2550000000002</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,7 +6546,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>187.9</v>
+        <v>189</v>
       </c>
       <c r="C167" t="n">
         <v>189</v>
@@ -6217,13 +6555,13 @@
         <v>189</v>
       </c>
       <c r="E167" t="n">
-        <v>187.9</v>
+        <v>189</v>
       </c>
       <c r="F167" t="n">
-        <v>3810.0397</v>
+        <v>3720.0728</v>
       </c>
       <c r="G167" t="n">
-        <v>191.1300000000002</v>
+        <v>191.1833333333336</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,7 +6581,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>189</v>
+        <v>187.9</v>
       </c>
       <c r="C168" t="n">
         <v>189</v>
@@ -6252,13 +6590,13 @@
         <v>189</v>
       </c>
       <c r="E168" t="n">
-        <v>189</v>
+        <v>187.9</v>
       </c>
       <c r="F168" t="n">
-        <v>713.0787</v>
+        <v>3810.0397</v>
       </c>
       <c r="G168" t="n">
-        <v>191.0583333333336</v>
+        <v>191.1300000000002</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6616,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>189.6</v>
+        <v>189</v>
       </c>
       <c r="C169" t="n">
-        <v>189.9</v>
+        <v>189</v>
       </c>
       <c r="D169" t="n">
-        <v>189.9</v>
+        <v>189</v>
       </c>
       <c r="E169" t="n">
-        <v>189.6</v>
+        <v>189</v>
       </c>
       <c r="F169" t="n">
-        <v>6814</v>
+        <v>713.0787</v>
       </c>
       <c r="G169" t="n">
-        <v>190.9950000000002</v>
+        <v>191.0583333333336</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6651,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>190</v>
+        <v>189.6</v>
       </c>
       <c r="C170" t="n">
-        <v>190.2</v>
+        <v>189.9</v>
       </c>
       <c r="D170" t="n">
-        <v>190.2</v>
+        <v>189.9</v>
       </c>
       <c r="E170" t="n">
-        <v>190</v>
+        <v>189.6</v>
       </c>
       <c r="F170" t="n">
-        <v>10545.3135</v>
+        <v>6814</v>
       </c>
       <c r="G170" t="n">
-        <v>190.9366666666669</v>
+        <v>190.9950000000002</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6686,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>188.7</v>
+        <v>190</v>
       </c>
       <c r="C171" t="n">
-        <v>188.7</v>
+        <v>190.2</v>
       </c>
       <c r="D171" t="n">
-        <v>188.7</v>
+        <v>190.2</v>
       </c>
       <c r="E171" t="n">
-        <v>188.7</v>
+        <v>190</v>
       </c>
       <c r="F171" t="n">
-        <v>1486.7727</v>
+        <v>10545.3135</v>
       </c>
       <c r="G171" t="n">
-        <v>190.8600000000002</v>
+        <v>190.9366666666669</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6395,10 +6733,10 @@
         <v>188.7</v>
       </c>
       <c r="F172" t="n">
-        <v>1782.5347</v>
+        <v>1486.7727</v>
       </c>
       <c r="G172" t="n">
-        <v>190.7833333333336</v>
+        <v>190.8600000000002</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6756,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>187.9</v>
+        <v>188.7</v>
       </c>
       <c r="C173" t="n">
-        <v>187.9</v>
+        <v>188.7</v>
       </c>
       <c r="D173" t="n">
-        <v>187.9</v>
+        <v>188.7</v>
       </c>
       <c r="E173" t="n">
-        <v>187.9</v>
+        <v>188.7</v>
       </c>
       <c r="F173" t="n">
-        <v>524.3969</v>
+        <v>1782.5347</v>
       </c>
       <c r="G173" t="n">
-        <v>190.6866666666669</v>
+        <v>190.7833333333336</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6791,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>188.7</v>
+        <v>187.9</v>
       </c>
       <c r="C174" t="n">
-        <v>188.7</v>
+        <v>187.9</v>
       </c>
       <c r="D174" t="n">
-        <v>188.7</v>
+        <v>187.9</v>
       </c>
       <c r="E174" t="n">
-        <v>188.7</v>
+        <v>187.9</v>
       </c>
       <c r="F174" t="n">
-        <v>1677.3706</v>
+        <v>524.3969</v>
       </c>
       <c r="G174" t="n">
-        <v>190.6033333333336</v>
+        <v>190.6866666666669</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6826,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>188</v>
+        <v>188.7</v>
       </c>
       <c r="C175" t="n">
-        <v>188</v>
+        <v>188.7</v>
       </c>
       <c r="D175" t="n">
-        <v>188</v>
+        <v>188.7</v>
       </c>
       <c r="E175" t="n">
-        <v>188</v>
+        <v>188.7</v>
       </c>
       <c r="F175" t="n">
-        <v>227.2896</v>
+        <v>1677.3706</v>
       </c>
       <c r="G175" t="n">
-        <v>190.5150000000003</v>
+        <v>190.6033333333336</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6861,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>187.9</v>
+        <v>188</v>
       </c>
       <c r="C176" t="n">
-        <v>187.9</v>
+        <v>188</v>
       </c>
       <c r="D176" t="n">
-        <v>187.9</v>
+        <v>188</v>
       </c>
       <c r="E176" t="n">
-        <v>187.9</v>
+        <v>188</v>
       </c>
       <c r="F176" t="n">
-        <v>2697.228</v>
+        <v>227.2896</v>
       </c>
       <c r="G176" t="n">
-        <v>190.4250000000003</v>
+        <v>190.5150000000003</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6896,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>187.8</v>
+        <v>187.9</v>
       </c>
       <c r="C177" t="n">
-        <v>188.9</v>
+        <v>187.9</v>
       </c>
       <c r="D177" t="n">
-        <v>188.9</v>
+        <v>187.9</v>
       </c>
       <c r="E177" t="n">
-        <v>187.8</v>
+        <v>187.9</v>
       </c>
       <c r="F177" t="n">
-        <v>1889.6994</v>
+        <v>2697.228</v>
       </c>
       <c r="G177" t="n">
-        <v>190.3550000000003</v>
+        <v>190.4250000000003</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6931,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>189</v>
+        <v>187.8</v>
       </c>
       <c r="C178" t="n">
-        <v>189</v>
+        <v>188.9</v>
       </c>
       <c r="D178" t="n">
-        <v>189</v>
+        <v>188.9</v>
       </c>
       <c r="E178" t="n">
-        <v>189</v>
+        <v>187.8</v>
       </c>
       <c r="F178" t="n">
-        <v>1856.6633</v>
+        <v>1889.6994</v>
       </c>
       <c r="G178" t="n">
-        <v>190.3050000000003</v>
+        <v>190.3550000000003</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6966,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>189.6</v>
+        <v>189</v>
       </c>
       <c r="C179" t="n">
-        <v>189.7</v>
+        <v>189</v>
       </c>
       <c r="D179" t="n">
-        <v>189.7</v>
+        <v>189</v>
       </c>
       <c r="E179" t="n">
-        <v>189.6</v>
+        <v>189</v>
       </c>
       <c r="F179" t="n">
-        <v>3285.8937</v>
+        <v>1856.6633</v>
       </c>
       <c r="G179" t="n">
-        <v>190.2483333333336</v>
+        <v>190.3050000000003</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +7001,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>189.9</v>
+        <v>189.6</v>
       </c>
       <c r="C180" t="n">
-        <v>189.9</v>
+        <v>189.7</v>
       </c>
       <c r="D180" t="n">
-        <v>189.9</v>
+        <v>189.7</v>
       </c>
       <c r="E180" t="n">
-        <v>189.9</v>
+        <v>189.6</v>
       </c>
       <c r="F180" t="n">
-        <v>2000</v>
+        <v>3285.8937</v>
       </c>
       <c r="G180" t="n">
-        <v>190.1950000000002</v>
+        <v>190.2483333333336</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6701,19 +7039,19 @@
         <v>189.9</v>
       </c>
       <c r="C181" t="n">
-        <v>190.2</v>
+        <v>189.9</v>
       </c>
       <c r="D181" t="n">
-        <v>190.2</v>
+        <v>189.9</v>
       </c>
       <c r="E181" t="n">
         <v>189.9</v>
       </c>
       <c r="F181" t="n">
-        <v>1056.2349</v>
+        <v>2000</v>
       </c>
       <c r="G181" t="n">
-        <v>190.1666666666669</v>
+        <v>190.1950000000002</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,7 +7071,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>190.2</v>
+        <v>189.9</v>
       </c>
       <c r="C182" t="n">
         <v>190.2</v>
@@ -6742,13 +7080,13 @@
         <v>190.2</v>
       </c>
       <c r="E182" t="n">
-        <v>190.2</v>
+        <v>189.9</v>
       </c>
       <c r="F182" t="n">
-        <v>220</v>
+        <v>1056.2349</v>
       </c>
       <c r="G182" t="n">
-        <v>190.1183333333336</v>
+        <v>190.1666666666669</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +7106,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>189.9</v>
+        <v>190.2</v>
       </c>
       <c r="C183" t="n">
-        <v>189.9</v>
+        <v>190.2</v>
       </c>
       <c r="D183" t="n">
-        <v>189.9</v>
+        <v>190.2</v>
       </c>
       <c r="E183" t="n">
-        <v>189.9</v>
+        <v>190.2</v>
       </c>
       <c r="F183" t="n">
-        <v>3077.38</v>
+        <v>220</v>
       </c>
       <c r="G183" t="n">
-        <v>190.0966666666669</v>
+        <v>190.1183333333336</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6815,10 +7153,10 @@
         <v>189.9</v>
       </c>
       <c r="F184" t="n">
-        <v>391.9513</v>
+        <v>3077.38</v>
       </c>
       <c r="G184" t="n">
-        <v>190.0750000000002</v>
+        <v>190.0966666666669</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6850,10 +7188,10 @@
         <v>189.9</v>
       </c>
       <c r="F185" t="n">
-        <v>480</v>
+        <v>391.9513</v>
       </c>
       <c r="G185" t="n">
-        <v>190.0533333333336</v>
+        <v>190.0750000000002</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6876,19 +7214,19 @@
         <v>189.9</v>
       </c>
       <c r="C186" t="n">
-        <v>188.7</v>
+        <v>189.9</v>
       </c>
       <c r="D186" t="n">
         <v>189.9</v>
       </c>
       <c r="E186" t="n">
-        <v>188.7</v>
+        <v>189.9</v>
       </c>
       <c r="F186" t="n">
-        <v>2170.96</v>
+        <v>480</v>
       </c>
       <c r="G186" t="n">
-        <v>190.0116666666669</v>
+        <v>190.0533333333336</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +7246,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>188.7</v>
+        <v>189.9</v>
       </c>
       <c r="C187" t="n">
         <v>188.7</v>
       </c>
       <c r="D187" t="n">
-        <v>188.7</v>
+        <v>189.9</v>
       </c>
       <c r="E187" t="n">
         <v>188.7</v>
       </c>
       <c r="F187" t="n">
-        <v>1540.5972</v>
+        <v>2170.96</v>
       </c>
       <c r="G187" t="n">
-        <v>189.9833333333336</v>
+        <v>190.0116666666669</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +7281,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>188.6</v>
+        <v>188.7</v>
       </c>
       <c r="C188" t="n">
-        <v>188.6</v>
+        <v>188.7</v>
       </c>
       <c r="D188" t="n">
-        <v>188.6</v>
+        <v>188.7</v>
       </c>
       <c r="E188" t="n">
-        <v>188.6</v>
+        <v>188.7</v>
       </c>
       <c r="F188" t="n">
-        <v>243</v>
+        <v>1540.5972</v>
       </c>
       <c r="G188" t="n">
-        <v>189.9433333333336</v>
+        <v>189.9833333333336</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6993,7 +7331,7 @@
         <v>243</v>
       </c>
       <c r="G189" t="n">
-        <v>189.9016666666669</v>
+        <v>189.9433333333336</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7025,10 +7363,10 @@
         <v>188.6</v>
       </c>
       <c r="F190" t="n">
-        <v>671.956</v>
+        <v>243</v>
       </c>
       <c r="G190" t="n">
-        <v>189.8583333333336</v>
+        <v>189.9016666666669</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7060,10 +7398,10 @@
         <v>188.6</v>
       </c>
       <c r="F191" t="n">
-        <v>99.84999999999999</v>
+        <v>671.956</v>
       </c>
       <c r="G191" t="n">
-        <v>189.8083333333336</v>
+        <v>189.8583333333336</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7421,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>188.7</v>
+        <v>188.6</v>
       </c>
       <c r="C192" t="n">
-        <v>188.7</v>
+        <v>188.6</v>
       </c>
       <c r="D192" t="n">
-        <v>188.7</v>
+        <v>188.6</v>
       </c>
       <c r="E192" t="n">
-        <v>188.7</v>
+        <v>188.6</v>
       </c>
       <c r="F192" t="n">
-        <v>1040.7543</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="G192" t="n">
-        <v>189.7383333333336</v>
+        <v>189.8083333333336</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7456,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>188.5</v>
+        <v>188.7</v>
       </c>
       <c r="C193" t="n">
-        <v>188.5</v>
+        <v>188.7</v>
       </c>
       <c r="D193" t="n">
-        <v>188.5</v>
+        <v>188.7</v>
       </c>
       <c r="E193" t="n">
-        <v>188.5</v>
+        <v>188.7</v>
       </c>
       <c r="F193" t="n">
-        <v>828.3286000000001</v>
+        <v>1040.7543</v>
       </c>
       <c r="G193" t="n">
-        <v>189.6800000000003</v>
+        <v>189.7383333333336</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7491,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>187.9</v>
+        <v>188.5</v>
       </c>
       <c r="C194" t="n">
-        <v>187.9</v>
+        <v>188.5</v>
       </c>
       <c r="D194" t="n">
-        <v>187.9</v>
+        <v>188.5</v>
       </c>
       <c r="E194" t="n">
-        <v>187.9</v>
+        <v>188.5</v>
       </c>
       <c r="F194" t="n">
-        <v>1609.7446</v>
+        <v>828.3286000000001</v>
       </c>
       <c r="G194" t="n">
-        <v>189.6166666666669</v>
+        <v>189.6800000000003</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7200,10 +7538,10 @@
         <v>187.9</v>
       </c>
       <c r="F195" t="n">
-        <v>882.149</v>
+        <v>1609.7446</v>
       </c>
       <c r="G195" t="n">
-        <v>189.5583333333336</v>
+        <v>189.6166666666669</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7235,10 +7573,10 @@
         <v>187.9</v>
       </c>
       <c r="F196" t="n">
-        <v>8.106400000000001</v>
+        <v>882.149</v>
       </c>
       <c r="G196" t="n">
-        <v>189.5033333333336</v>
+        <v>189.5583333333336</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7596,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>188.4</v>
+        <v>187.9</v>
       </c>
       <c r="C197" t="n">
-        <v>188.4</v>
+        <v>187.9</v>
       </c>
       <c r="D197" t="n">
-        <v>188.4</v>
+        <v>187.9</v>
       </c>
       <c r="E197" t="n">
-        <v>188.4</v>
+        <v>187.9</v>
       </c>
       <c r="F197" t="n">
-        <v>300</v>
+        <v>8.106400000000001</v>
       </c>
       <c r="G197" t="n">
-        <v>189.4566666666669</v>
+        <v>189.5033333333336</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7305,10 +7643,10 @@
         <v>188.4</v>
       </c>
       <c r="F198" t="n">
-        <v>1589.1666666666</v>
+        <v>300</v>
       </c>
       <c r="G198" t="n">
-        <v>189.3916666666669</v>
+        <v>189.4566666666669</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7666,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>188.1</v>
+        <v>188.4</v>
       </c>
       <c r="C199" t="n">
-        <v>187.7</v>
+        <v>188.4</v>
       </c>
       <c r="D199" t="n">
-        <v>188.1</v>
+        <v>188.4</v>
       </c>
       <c r="E199" t="n">
-        <v>187.7</v>
+        <v>188.4</v>
       </c>
       <c r="F199" t="n">
-        <v>18145.7079</v>
+        <v>1589.1666666666</v>
       </c>
       <c r="G199" t="n">
-        <v>189.3433333333336</v>
+        <v>189.3916666666669</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7363,22 +7701,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>187.7</v>
+        <v>188.1</v>
       </c>
       <c r="C200" t="n">
         <v>187.7</v>
       </c>
       <c r="D200" t="n">
-        <v>187.7</v>
+        <v>188.1</v>
       </c>
       <c r="E200" t="n">
         <v>187.7</v>
       </c>
       <c r="F200" t="n">
-        <v>4067.507</v>
+        <v>18145.7079</v>
       </c>
       <c r="G200" t="n">
-        <v>189.2700000000002</v>
+        <v>189.3433333333336</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7410,10 +7748,10 @@
         <v>187.7</v>
       </c>
       <c r="F201" t="n">
-        <v>3333.2516</v>
+        <v>4067.507</v>
       </c>
       <c r="G201" t="n">
-        <v>189.2150000000002</v>
+        <v>189.2700000000002</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7445,10 +7783,10 @@
         <v>187.7</v>
       </c>
       <c r="F202" t="n">
-        <v>1739.7636</v>
+        <v>3333.2516</v>
       </c>
       <c r="G202" t="n">
-        <v>189.1333333333336</v>
+        <v>189.2150000000002</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7806,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>187.6</v>
+        <v>187.7</v>
       </c>
       <c r="C203" t="n">
-        <v>187.6</v>
+        <v>187.7</v>
       </c>
       <c r="D203" t="n">
-        <v>187.6</v>
+        <v>187.7</v>
       </c>
       <c r="E203" t="n">
-        <v>187.6</v>
+        <v>187.7</v>
       </c>
       <c r="F203" t="n">
-        <v>847.8885</v>
+        <v>1739.7636</v>
       </c>
       <c r="G203" t="n">
-        <v>189.0616666666669</v>
+        <v>189.1333333333336</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7841,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>187.8</v>
+        <v>187.6</v>
       </c>
       <c r="C204" t="n">
-        <v>187.8</v>
+        <v>187.6</v>
       </c>
       <c r="D204" t="n">
-        <v>187.8</v>
+        <v>187.6</v>
       </c>
       <c r="E204" t="n">
-        <v>187.8</v>
+        <v>187.6</v>
       </c>
       <c r="F204" t="n">
-        <v>412.9999</v>
+        <v>847.8885</v>
       </c>
       <c r="G204" t="n">
-        <v>188.9933333333336</v>
+        <v>189.0616666666669</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7541,19 +7879,19 @@
         <v>187.8</v>
       </c>
       <c r="C205" t="n">
-        <v>187.4</v>
+        <v>187.8</v>
       </c>
       <c r="D205" t="n">
         <v>187.8</v>
       </c>
       <c r="E205" t="n">
-        <v>187.4</v>
+        <v>187.8</v>
       </c>
       <c r="F205" t="n">
-        <v>10477.44</v>
+        <v>412.9999</v>
       </c>
       <c r="G205" t="n">
-        <v>188.9466666666669</v>
+        <v>188.9933333333336</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,22 +7911,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>187.4</v>
+        <v>187.8</v>
       </c>
       <c r="C206" t="n">
         <v>187.4</v>
       </c>
       <c r="D206" t="n">
-        <v>187.4</v>
+        <v>187.8</v>
       </c>
       <c r="E206" t="n">
         <v>187.4</v>
       </c>
       <c r="F206" t="n">
-        <v>1411.6663</v>
+        <v>10477.44</v>
       </c>
       <c r="G206" t="n">
-        <v>188.8900000000002</v>
+        <v>188.9466666666669</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7611,19 +7949,19 @@
         <v>187.4</v>
       </c>
       <c r="C207" t="n">
-        <v>187.2</v>
+        <v>187.4</v>
       </c>
       <c r="D207" t="n">
         <v>187.4</v>
       </c>
       <c r="E207" t="n">
-        <v>187.2</v>
+        <v>187.4</v>
       </c>
       <c r="F207" t="n">
-        <v>14877.4993</v>
+        <v>1411.6663</v>
       </c>
       <c r="G207" t="n">
-        <v>188.8466666666669</v>
+        <v>188.8900000000002</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +7981,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>187.2</v>
+        <v>187.4</v>
       </c>
       <c r="C208" t="n">
         <v>187.2</v>
       </c>
       <c r="D208" t="n">
-        <v>187.2</v>
+        <v>187.4</v>
       </c>
       <c r="E208" t="n">
         <v>187.2</v>
       </c>
       <c r="F208" t="n">
-        <v>70.89</v>
+        <v>14877.4993</v>
       </c>
       <c r="G208" t="n">
-        <v>188.7716666666669</v>
+        <v>188.8466666666669</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7690,10 +8028,10 @@
         <v>187.2</v>
       </c>
       <c r="F209" t="n">
-        <v>760.9186</v>
+        <v>70.89</v>
       </c>
       <c r="G209" t="n">
-        <v>188.7016666666669</v>
+        <v>188.7716666666669</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7716,19 +8054,19 @@
         <v>187.2</v>
       </c>
       <c r="C210" t="n">
-        <v>186.8</v>
+        <v>187.2</v>
       </c>
       <c r="D210" t="n">
         <v>187.2</v>
       </c>
       <c r="E210" t="n">
-        <v>186.8</v>
+        <v>187.2</v>
       </c>
       <c r="F210" t="n">
-        <v>1714.0515</v>
+        <v>760.9186</v>
       </c>
       <c r="G210" t="n">
-        <v>188.6533333333336</v>
+        <v>188.7016666666669</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +8086,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>186.8</v>
+        <v>187.2</v>
       </c>
       <c r="C211" t="n">
         <v>186.8</v>
       </c>
       <c r="D211" t="n">
-        <v>186.8</v>
+        <v>187.2</v>
       </c>
       <c r="E211" t="n">
         <v>186.8</v>
       </c>
       <c r="F211" t="n">
-        <v>1310.8394</v>
+        <v>1714.0515</v>
       </c>
       <c r="G211" t="n">
-        <v>188.6050000000002</v>
+        <v>188.6533333333336</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7795,10 +8133,10 @@
         <v>186.8</v>
       </c>
       <c r="F212" t="n">
-        <v>1299.517</v>
+        <v>1310.8394</v>
       </c>
       <c r="G212" t="n">
-        <v>188.5383333333336</v>
+        <v>188.6050000000002</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7830,10 +8168,10 @@
         <v>186.8</v>
       </c>
       <c r="F213" t="n">
-        <v>731.5996</v>
+        <v>1299.517</v>
       </c>
       <c r="G213" t="n">
-        <v>188.4900000000002</v>
+        <v>188.5383333333336</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7865,10 +8203,10 @@
         <v>186.8</v>
       </c>
       <c r="F214" t="n">
-        <v>362.3231</v>
+        <v>731.5996</v>
       </c>
       <c r="G214" t="n">
-        <v>188.4416666666669</v>
+        <v>188.4900000000002</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +8226,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>186.7</v>
+        <v>186.8</v>
       </c>
       <c r="C215" t="n">
-        <v>186.6</v>
+        <v>186.8</v>
       </c>
       <c r="D215" t="n">
-        <v>186.7</v>
+        <v>186.8</v>
       </c>
       <c r="E215" t="n">
-        <v>186.6</v>
+        <v>186.8</v>
       </c>
       <c r="F215" t="n">
-        <v>500</v>
+        <v>362.3231</v>
       </c>
       <c r="G215" t="n">
-        <v>188.4000000000002</v>
+        <v>188.4416666666669</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +8261,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="C216" t="n">
         <v>186.6</v>
       </c>
-      <c r="C216" t="n">
-        <v>186.5</v>
-      </c>
       <c r="D216" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="E216" t="n">
         <v>186.6</v>
       </c>
-      <c r="E216" t="n">
-        <v>186.5</v>
-      </c>
       <c r="F216" t="n">
-        <v>2266.5467</v>
+        <v>500</v>
       </c>
       <c r="G216" t="n">
-        <v>188.3583333333335</v>
+        <v>188.4000000000002</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7958,35 +8296,31 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>187</v>
+        <v>186.6</v>
       </c>
       <c r="C217" t="n">
-        <v>187</v>
+        <v>186.5</v>
       </c>
       <c r="D217" t="n">
-        <v>187</v>
+        <v>186.6</v>
       </c>
       <c r="E217" t="n">
-        <v>187</v>
+        <v>186.5</v>
       </c>
       <c r="F217" t="n">
-        <v>3</v>
+        <v>2266.5467</v>
       </c>
       <c r="G217" t="n">
-        <v>188.3400000000002</v>
+        <v>188.3583333333335</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="K217" t="n">
-        <v>186.5</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
@@ -7997,40 +8331,32 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>186.7</v>
+        <v>187</v>
       </c>
       <c r="C218" t="n">
-        <v>186.7</v>
+        <v>187</v>
       </c>
       <c r="D218" t="n">
-        <v>186.7</v>
+        <v>187</v>
       </c>
       <c r="E218" t="n">
-        <v>186.7</v>
+        <v>187</v>
       </c>
       <c r="F218" t="n">
-        <v>800.2198</v>
+        <v>3</v>
       </c>
       <c r="G218" t="n">
-        <v>188.3183333333335</v>
+        <v>188.3400000000002</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>187</v>
-      </c>
-      <c r="K218" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8040,40 +8366,32 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>186.5</v>
+        <v>186.7</v>
       </c>
       <c r="C219" t="n">
-        <v>186.5</v>
+        <v>186.7</v>
       </c>
       <c r="D219" t="n">
-        <v>186.5</v>
+        <v>186.7</v>
       </c>
       <c r="E219" t="n">
-        <v>186.5</v>
+        <v>186.7</v>
       </c>
       <c r="F219" t="n">
-        <v>55.92</v>
+        <v>800.2198</v>
       </c>
       <c r="G219" t="n">
-        <v>188.2933333333335</v>
+        <v>188.3183333333335</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="K219" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8095,10 +8413,10 @@
         <v>186.5</v>
       </c>
       <c r="F220" t="n">
-        <v>480</v>
+        <v>55.92</v>
       </c>
       <c r="G220" t="n">
-        <v>188.2516666666669</v>
+        <v>188.2933333333335</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8118,35 +8436,31 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>186.4</v>
+        <v>186.5</v>
       </c>
       <c r="C221" t="n">
-        <v>186.4</v>
+        <v>186.5</v>
       </c>
       <c r="D221" t="n">
-        <v>186.4</v>
+        <v>186.5</v>
       </c>
       <c r="E221" t="n">
-        <v>186.4</v>
+        <v>186.5</v>
       </c>
       <c r="F221" t="n">
-        <v>632.6673</v>
+        <v>480</v>
       </c>
       <c r="G221" t="n">
-        <v>188.2266666666669</v>
+        <v>188.2516666666669</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="K221" t="n">
-        <v>186.5</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
@@ -8169,28 +8483,20 @@
         <v>186.4</v>
       </c>
       <c r="F222" t="n">
-        <v>2104.3092</v>
+        <v>632.6673</v>
       </c>
       <c r="G222" t="n">
-        <v>188.1700000000002</v>
+        <v>188.2266666666669</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="K222" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8203,37 +8509,29 @@
         <v>186.4</v>
       </c>
       <c r="C223" t="n">
-        <v>186.2</v>
+        <v>186.4</v>
       </c>
       <c r="D223" t="n">
         <v>186.4</v>
       </c>
       <c r="E223" t="n">
-        <v>186.2</v>
+        <v>186.4</v>
       </c>
       <c r="F223" t="n">
-        <v>2412.236</v>
+        <v>2104.3092</v>
       </c>
       <c r="G223" t="n">
-        <v>188.1250000000002</v>
+        <v>188.1700000000002</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="K223" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8243,22 +8541,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="C224" t="n">
         <v>186.2</v>
       </c>
-      <c r="C224" t="n">
-        <v>186.9</v>
-      </c>
       <c r="D224" t="n">
-        <v>186.9</v>
+        <v>186.4</v>
       </c>
       <c r="E224" t="n">
         <v>186.2</v>
       </c>
       <c r="F224" t="n">
-        <v>3427.5165</v>
+        <v>2412.236</v>
       </c>
       <c r="G224" t="n">
-        <v>188.0900000000002</v>
+        <v>188.1250000000002</v>
       </c>
       <c r="H224" t="n">
         <v>1</v>
@@ -8267,14 +8565,12 @@
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="K224" t="n">
-        <v>186.5</v>
-      </c>
+        <v>186.4</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M224" t="n">
@@ -8289,19 +8585,19 @@
         <v>186.2</v>
       </c>
       <c r="C225" t="n">
-        <v>186.2</v>
+        <v>186.9</v>
       </c>
       <c r="D225" t="n">
-        <v>186.2</v>
+        <v>186.9</v>
       </c>
       <c r="E225" t="n">
         <v>186.2</v>
       </c>
       <c r="F225" t="n">
-        <v>1058.7497</v>
+        <v>3427.5165</v>
       </c>
       <c r="G225" t="n">
-        <v>188.0433333333335</v>
+        <v>188.0900000000002</v>
       </c>
       <c r="H225" t="n">
         <v>1</v>
@@ -8310,11 +8606,9 @@
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>186.9</v>
-      </c>
-      <c r="K225" t="n">
-        <v>186.5</v>
-      </c>
+        <v>186.2</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8329,35 +8623,31 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>186.5</v>
+        <v>186.2</v>
       </c>
       <c r="C226" t="n">
-        <v>186.5</v>
+        <v>186.2</v>
       </c>
       <c r="D226" t="n">
-        <v>186.5</v>
+        <v>186.2</v>
       </c>
       <c r="E226" t="n">
-        <v>186.5</v>
+        <v>186.2</v>
       </c>
       <c r="F226" t="n">
-        <v>304</v>
+        <v>1058.7497</v>
       </c>
       <c r="G226" t="n">
-        <v>188.0016666666669</v>
+        <v>188.0433333333335</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="K226" t="n">
-        <v>186.5</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8372,35 +8662,31 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>186.1</v>
+        <v>186.5</v>
       </c>
       <c r="C227" t="n">
-        <v>186.1</v>
+        <v>186.5</v>
       </c>
       <c r="D227" t="n">
-        <v>186.1</v>
+        <v>186.5</v>
       </c>
       <c r="E227" t="n">
-        <v>186.1</v>
+        <v>186.5</v>
       </c>
       <c r="F227" t="n">
-        <v>1588.1246</v>
+        <v>304</v>
       </c>
       <c r="G227" t="n">
-        <v>187.9533333333335</v>
+        <v>188.0016666666669</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="K227" t="n">
-        <v>186.5</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8418,36 +8704,73 @@
         <v>186.1</v>
       </c>
       <c r="C228" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="E228" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1588.1246</v>
+      </c>
+      <c r="G228" t="n">
+        <v>187.9533333333335</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="C229" t="n">
         <v>185.3</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D229" t="n">
         <v>186.6</v>
       </c>
-      <c r="E228" t="n">
+      <c r="E229" t="n">
         <v>185.3</v>
       </c>
-      <c r="F228" t="n">
+      <c r="F229" t="n">
         <v>20171.4204</v>
       </c>
-      <c r="G228" t="n">
+      <c r="G229" t="n">
         <v>187.8916666666669</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
+      <c r="M229" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest INS.xlsx
+++ b/BackTest/2020-01-21 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N297"/>
+  <dimension ref="A1:M297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>75483.80489999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>75483.80489999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>57606.61489999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>58533.62079999998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>45410.34939999998</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>10636.23359999998</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>26871.94059999998</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>26861.37369999998</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>26718.17679999998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>21244.59529999998</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>20317.58939999998</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>22115.08919999998</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>22117.71919999998</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>20617.81279999998</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>10843.13359999998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5712,18 +5269,15 @@
         <v>-8341.555113867518</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6540,18 +6028,15 @@
         <v>-14010.20751386752</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6684,18 +6160,15 @@
         <v>-10866.86561386752</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6828,18 +6292,15 @@
         <v>-10969.56241386752</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6900,18 +6358,15 @@
         <v>36863.90458613248</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8340,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8373,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8406,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8439,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8472,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8505,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +8538,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +8571,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +8604,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +8637,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +8670,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +8703,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9494,16 +8736,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9530,16 +8769,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9566,16 +8802,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +8835,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +8868,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9674,16 +8901,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9710,16 +8934,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9746,16 +8967,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9782,16 +9000,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9818,16 +9033,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9854,16 +9066,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9890,16 +9099,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9926,16 +9132,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9962,16 +9165,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9996,18 +9196,19 @@
         <v>-99895.8323835076</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
+        <v>187.2</v>
+      </c>
+      <c r="J267" t="n">
+        <v>187.2</v>
+      </c>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10032,18 +9233,23 @@
         <v>-99895.8323835076</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+        <v>187.2</v>
+      </c>
+      <c r="J268" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10068,18 +9274,23 @@
         <v>-101609.8838835076</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+        <v>187.2</v>
+      </c>
+      <c r="J269" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10104,18 +9315,23 @@
         <v>-101609.8838835076</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+        <v>186.8</v>
+      </c>
+      <c r="J270" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10140,18 +9356,23 @@
         <v>-101609.8838835076</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+        <v>186.8</v>
+      </c>
+      <c r="J271" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10178,16 +9399,19 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10214,16 +9438,19 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10250,16 +9477,19 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10284,24 +9514,21 @@
         <v>-104376.4305835076</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K275" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10328,20 +9555,19 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10366,24 +9592,21 @@
         <v>-105173.6503835076</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>187</v>
-      </c>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10408,24 +9631,21 @@
         <v>-105229.5703835076</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10450,24 +9670,23 @@
         <v>-105229.5703835076</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>186.5</v>
       </c>
       <c r="J279" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10492,24 +9711,23 @@
         <v>-105862.2376835076</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>186.5</v>
       </c>
       <c r="J280" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10534,24 +9752,21 @@
         <v>-105862.2376835076</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10576,24 +9791,23 @@
         <v>-108274.4736835076</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" t="n">
-        <v>0</v>
+        <v>186.4</v>
       </c>
       <c r="J282" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10618,24 +9832,23 @@
         <v>-104846.9571835076</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
+        <v>186.2</v>
       </c>
       <c r="J283" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10660,24 +9873,23 @@
         <v>-105905.7068835076</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>186.9</v>
       </c>
       <c r="J284" t="n">
-        <v>186.9</v>
-      </c>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10702,24 +9914,23 @@
         <v>-105601.7068835076</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" t="n">
-        <v>0</v>
+        <v>186.2</v>
       </c>
       <c r="J285" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10744,24 +9955,23 @@
         <v>-107189.8314835076</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>186.5</v>
       </c>
       <c r="J286" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10786,24 +9996,21 @@
         <v>-127361.2518835076</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10828,24 +10035,21 @@
         <v>-136361.2518835076</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10870,24 +10074,21 @@
         <v>-135557.1895835076</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10912,24 +10113,23 @@
         <v>-136257.1895835076</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>186.4</v>
       </c>
       <c r="J290" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10954,24 +10154,23 @@
         <v>-137227.1295835076</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
+        <v>185.3</v>
       </c>
       <c r="J291" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10996,24 +10195,23 @@
         <v>-137227.1295835076</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
+        <v>185.2</v>
       </c>
       <c r="J292" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11038,24 +10236,23 @@
         <v>-137157.2194835076</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
+        <v>185.2</v>
       </c>
       <c r="J293" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11080,24 +10277,23 @@
         <v>-138952.5408835076</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
+        <v>185.8</v>
       </c>
       <c r="J294" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11122,24 +10318,23 @@
         <v>-138942.4966835076</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>183.8</v>
       </c>
       <c r="J295" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11164,24 +10359,23 @@
         <v>-148516.2465835076</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I296" t="n">
-        <v>0</v>
+        <v>184.6</v>
       </c>
       <c r="J296" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11206,26 +10400,25 @@
         <v>-160940.3162835076</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
+        <v>183.3</v>
       </c>
       <c r="J297" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
+        <v>187.2</v>
+      </c>
+      <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest INS.xlsx
+++ b/BackTest/2020-01-21 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1441,7 +1441,7 @@
         <v>75483.80489999999</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>75483.80489999999</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>57606.61489999999</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>58533.62079999998</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>45410.34939999998</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>34861.85149999998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>14751.85149999998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>5936.136099999983</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>5936.136099999983</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>14540.58109999998</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>14533.58109999998</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>14510.26249999998</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>13875.97919999998</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>13875.97919999998</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>13599.97919999998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>13379.97919999998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>13379.97919999998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>13379.97919999998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>13291.97919999998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>12745.65089999998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>11044.25449999998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>13094.07409999998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>15720.16869999998</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>10636.23359999998</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>26871.94059999998</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>26861.37369999998</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>26718.17679999998</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>26718.17679999998</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>21244.59529999998</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>20317.58939999998</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>22115.08919999998</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>22117.71919999998</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>20617.81279999998</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>10843.13359999998</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-8341.555113867518</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-10029.41911386752</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-10029.41911386752</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-10029.41911386752</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-14000.20751386752</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-14000.20751386752</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-14010.20751386752</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-14010.20751386752</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-10856.86561386752</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-10856.86561386752</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-10866.86561386752</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-10969.56241386752</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-10969.56241386752</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-13384.09541386752</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>36863.90458613248</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>26045.53058613249</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>26045.53058613249</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>26045.53058613249</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>15876.61138613248</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>16527.06548613248</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>17007.18928613248</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>17358.18928613248</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>23129.84828613248</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>19059.44348613248</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>9049.443486132484</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>9046.324686132484</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-99895.8323835076</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>187.2</v>
@@ -9233,7 +9233,7 @@
         <v>-99895.8323835076</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>187.2</v>
@@ -9274,7 +9274,7 @@
         <v>-101609.8838835076</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>187.2</v>
@@ -9315,7 +9315,7 @@
         <v>-101609.8838835076</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>186.8</v>
@@ -9356,7 +9356,7 @@
         <v>-101609.8838835076</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>186.8</v>
@@ -9397,9 +9397,11 @@
         <v>-101609.8838835076</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>186.8</v>
+      </c>
       <c r="J272" t="n">
         <v>187.2</v>
       </c>
@@ -9436,9 +9438,11 @@
         <v>-101609.8838835076</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>186.8</v>
+      </c>
       <c r="J273" t="n">
         <v>187.2</v>
       </c>
@@ -9475,9 +9479,11 @@
         <v>-102109.8838835076</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>186.8</v>
+      </c>
       <c r="J274" t="n">
         <v>187.2</v>
       </c>
@@ -9514,9 +9520,11 @@
         <v>-104376.4305835076</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>186.6</v>
+      </c>
       <c r="J275" t="n">
         <v>187.2</v>
       </c>
@@ -9553,9 +9561,11 @@
         <v>-104373.4305835076</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>186.5</v>
+      </c>
       <c r="J276" t="n">
         <v>187.2</v>
       </c>
@@ -9592,9 +9602,11 @@
         <v>-105173.6503835076</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>187</v>
+      </c>
       <c r="J277" t="n">
         <v>187.2</v>
       </c>
@@ -9631,9 +9643,11 @@
         <v>-105229.5703835076</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>186.7</v>
+      </c>
       <c r="J278" t="n">
         <v>187.2</v>
       </c>
@@ -9670,7 +9684,7 @@
         <v>-105229.5703835076</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>186.5</v>
@@ -9711,7 +9725,7 @@
         <v>-105862.2376835076</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>186.5</v>
@@ -9752,9 +9766,11 @@
         <v>-105862.2376835076</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>186.4</v>
+      </c>
       <c r="J281" t="n">
         <v>187.2</v>
       </c>
@@ -9791,7 +9807,7 @@
         <v>-108274.4736835076</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>186.4</v>
@@ -9832,7 +9848,7 @@
         <v>-104846.9571835076</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>186.2</v>
@@ -9873,7 +9889,7 @@
         <v>-105905.7068835076</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>186.9</v>
@@ -9914,7 +9930,7 @@
         <v>-105601.7068835076</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>186.2</v>
@@ -9955,7 +9971,7 @@
         <v>-107189.8314835076</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>186.5</v>
@@ -9996,9 +10012,11 @@
         <v>-127361.2518835076</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>186.1</v>
+      </c>
       <c r="J287" t="n">
         <v>187.2</v>
       </c>
@@ -10035,9 +10053,11 @@
         <v>-136361.2518835076</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>185.3</v>
+      </c>
       <c r="J288" t="n">
         <v>187.2</v>
       </c>
@@ -10074,9 +10094,11 @@
         <v>-135557.1895835076</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>185.2</v>
+      </c>
       <c r="J289" t="n">
         <v>187.2</v>
       </c>
@@ -10113,7 +10135,7 @@
         <v>-136257.1895835076</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>186.4</v>
@@ -10154,7 +10176,7 @@
         <v>-137227.1295835076</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>185.3</v>
@@ -10195,7 +10217,7 @@
         <v>-137227.1295835076</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>185.2</v>
@@ -10236,7 +10258,7 @@
         <v>-137157.2194835076</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>185.2</v>
@@ -10277,7 +10299,7 @@
         <v>-138952.5408835076</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>185.8</v>
@@ -10318,7 +10340,7 @@
         <v>-138942.4966835076</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>183.8</v>
@@ -10359,7 +10381,7 @@
         <v>-148516.2465835076</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>184.6</v>
@@ -10400,7 +10422,7 @@
         <v>-160940.3162835076</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>183.3</v>
@@ -10419,6 +10441,6 @@
       <c r="M297" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest INS.xlsx
+++ b/BackTest/2020-01-21 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1804,7 +1804,7 @@
         <v>34861.85149999998</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>5936.136099999983</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>5936.136099999983</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>14540.58109999998</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>14533.58109999998</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>14510.26249999998</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>13875.97919999998</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>13875.97919999998</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>13599.97919999998</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>13379.97919999998</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>13379.97919999998</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>13379.97919999998</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>13291.97919999998</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>12745.65089999998</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>14669.94599999998</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>10460.23359999998</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>26718.17679999998</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>26718.17679999998</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>21244.59529999998</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-10029.41911386752</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-10029.41911386752</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-10029.41911386752</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-14000.20751386752</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-14000.20751386752</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-14010.20751386752</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-14010.20751386752</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-10856.86561386752</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-10856.86561386752</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-10969.56241386752</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-10969.56241386752</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-13384.09541386752</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>36863.90458613248</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>26045.53058613249</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>26045.53058613249</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>26045.53058613249</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>15876.61138613248</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>16527.06548613248</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>17007.18928613248</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>17358.18928613248</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>23129.84828613248</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>19059.44348613248</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>9049.443486132484</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>9046.324686132484</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -9196,14 +9196,10 @@
         <v>-99895.8323835076</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="J267" t="n">
-        <v>187.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
@@ -9233,19 +9229,11 @@
         <v>-99895.8323835076</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="J268" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9274,839 +9262,677 @@
         <v>-101609.8838835076</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="J269" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K269" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="C270" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D270" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E270" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1310.8394</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-101609.8838835076</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="C271" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D271" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E271" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1299.517</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-101609.8838835076</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="C272" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D272" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E272" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="F272" t="n">
+        <v>731.5996</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-101609.8838835076</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="C273" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D273" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E273" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="F273" t="n">
+        <v>362.3231</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-101609.8838835076</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="C274" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="D274" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="E274" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="F274" t="n">
+        <v>500</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-102109.8838835076</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="C275" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="D275" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="E275" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="F275" t="n">
+        <v>2266.5467</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-104376.4305835076</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>187</v>
+      </c>
+      <c r="C276" t="n">
+        <v>187</v>
+      </c>
+      <c r="D276" t="n">
+        <v>187</v>
+      </c>
+      <c r="E276" t="n">
+        <v>187</v>
+      </c>
+      <c r="F276" t="n">
+        <v>3</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-104373.4305835076</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="C277" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="D277" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="E277" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="F277" t="n">
+        <v>800.2198</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-105173.6503835076</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="C278" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="D278" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="E278" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="F278" t="n">
+        <v>55.92</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-105229.5703835076</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="C279" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="D279" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="E279" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="F279" t="n">
+        <v>480</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-105229.5703835076</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="C280" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="D280" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="E280" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="F280" t="n">
+        <v>632.6673</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-105862.2376835076</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="C281" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="D281" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="E281" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="F281" t="n">
+        <v>2104.3092</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-105862.2376835076</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="C282" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D282" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="E282" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F282" t="n">
+        <v>2412.236</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-108274.4736835076</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="C283" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="D283" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="E283" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F283" t="n">
+        <v>3427.5165</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-104846.9571835076</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="C284" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D284" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E284" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1058.7497</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-105905.7068835076</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="C285" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="D285" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="E285" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="F285" t="n">
+        <v>304</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-105601.7068835076</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="C286" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="D286" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="E286" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="F286" t="n">
+        <v>1588.1246</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-107189.8314835076</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="C287" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="D287" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="E287" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="F287" t="n">
+        <v>20171.4204</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-127361.2518835076</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="C288" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="D288" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="E288" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="F288" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-136361.2518835076</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="C289" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="D289" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="E289" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="F289" t="n">
+        <v>804.0623000000001</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-135557.1895835076</v>
+      </c>
+      <c r="H289" t="n">
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="C270" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="D270" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="E270" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="F270" t="n">
-        <v>1310.8394</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-101609.8838835076</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="J270" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="C271" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="D271" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="E271" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="F271" t="n">
-        <v>1299.517</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-101609.8838835076</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="J271" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="C272" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="D272" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="E272" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="F272" t="n">
-        <v>731.5996</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-101609.8838835076</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="J272" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="C273" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="D273" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="E273" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="F273" t="n">
-        <v>362.3231</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-101609.8838835076</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="J273" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="C274" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="D274" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="E274" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="F274" t="n">
-        <v>500</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-102109.8838835076</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="J274" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="C275" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="D275" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="E275" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="F275" t="n">
-        <v>2266.5467</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-104376.4305835076</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="J275" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>187</v>
-      </c>
-      <c r="C276" t="n">
-        <v>187</v>
-      </c>
-      <c r="D276" t="n">
-        <v>187</v>
-      </c>
-      <c r="E276" t="n">
-        <v>187</v>
-      </c>
-      <c r="F276" t="n">
-        <v>3</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-104373.4305835076</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="J276" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="C277" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="D277" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="E277" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="F277" t="n">
-        <v>800.2198</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-105173.6503835076</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>187</v>
-      </c>
-      <c r="J277" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="C278" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="D278" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="E278" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="F278" t="n">
-        <v>55.92</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-105229.5703835076</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="J278" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="C279" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="D279" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="E279" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="F279" t="n">
-        <v>480</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-105229.5703835076</v>
-      </c>
-      <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="J279" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="C280" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="D280" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="E280" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="F280" t="n">
-        <v>632.6673</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-105862.2376835076</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="J280" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="C281" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="D281" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="E281" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="F281" t="n">
-        <v>2104.3092</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-105862.2376835076</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="J281" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="C282" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="D282" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="E282" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="F282" t="n">
-        <v>2412.236</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-108274.4736835076</v>
-      </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="J282" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="C283" t="n">
-        <v>186.9</v>
-      </c>
-      <c r="D283" t="n">
-        <v>186.9</v>
-      </c>
-      <c r="E283" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="F283" t="n">
-        <v>3427.5165</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-104846.9571835076</v>
-      </c>
-      <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="J283" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="C284" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="D284" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="E284" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="F284" t="n">
-        <v>1058.7497</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-105905.7068835076</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>186.9</v>
-      </c>
-      <c r="J284" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="C285" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="D285" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="E285" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="F285" t="n">
-        <v>304</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-105601.7068835076</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="J285" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="C286" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="D286" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="E286" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="F286" t="n">
-        <v>1588.1246</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-107189.8314835076</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="J286" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="C287" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="D287" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="E287" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="F287" t="n">
-        <v>20171.4204</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-127361.2518835076</v>
-      </c>
-      <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="J287" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="C288" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="D288" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="E288" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="F288" t="n">
-        <v>9000</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-136361.2518835076</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="J288" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="C289" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="D289" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="E289" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="F289" t="n">
-        <v>804.0623000000001</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-135557.1895835076</v>
-      </c>
-      <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="J289" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10140,9 +9966,7 @@
       <c r="I290" t="n">
         <v>186.4</v>
       </c>
-      <c r="J290" t="n">
-        <v>187.2</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10181,9 +10005,7 @@
       <c r="I291" t="n">
         <v>185.3</v>
       </c>
-      <c r="J291" t="n">
-        <v>187.2</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10222,9 +10044,7 @@
       <c r="I292" t="n">
         <v>185.2</v>
       </c>
-      <c r="J292" t="n">
-        <v>187.2</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10263,9 +10083,7 @@
       <c r="I293" t="n">
         <v>185.2</v>
       </c>
-      <c r="J293" t="n">
-        <v>187.2</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10304,9 +10122,7 @@
       <c r="I294" t="n">
         <v>185.8</v>
       </c>
-      <c r="J294" t="n">
-        <v>187.2</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10345,9 +10161,7 @@
       <c r="I295" t="n">
         <v>183.8</v>
       </c>
-      <c r="J295" t="n">
-        <v>187.2</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10386,9 +10200,7 @@
       <c r="I296" t="n">
         <v>184.6</v>
       </c>
-      <c r="J296" t="n">
-        <v>187.2</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10427,9 +10239,7 @@
       <c r="I297" t="n">
         <v>183.3</v>
       </c>
-      <c r="J297" t="n">
-        <v>187.2</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10441,6 +10251,6 @@
       <c r="M297" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest INS.xlsx
+++ b/BackTest/2020-01-21 BackTest INS.xlsx
@@ -1837,7 +1837,7 @@
         <v>14751.85149999998</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>13291.97919999998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>11044.25449999998</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>13094.07409999998</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>15720.16869999998</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>14669.94599999998</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>10460.23359999998</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>9516.936986132483</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>3883.231686132483</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>3905.864286132483</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-962.550913867517</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-5610.758713867517</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-10998.89871386752</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-11199.89871386752</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-10778.26301386752</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-10778.26301386752</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-10778.26301386752</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-10778.26301386752</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-16088.48291386752</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-12545.71021386752</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-12545.71021386752</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-12548.29691386752</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-16692.62871386752</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-16692.62871386752</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-10029.41911386752</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-10029.41911386752</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-10029.41911386752</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-16441.94581386752</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-15969.73571386752</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-14000.20751386752</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-14000.20751386752</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-14010.20751386752</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-14010.20751386752</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-10856.86561386752</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-10856.86561386752</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-10866.86561386752</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-10866.86561386752</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-10876.86561386752</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-10979.56241386752</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-10969.56241386752</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-10969.56241386752</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-13384.09541386752</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>36863.90458613248</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>26045.53058613249</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>26045.53058613249</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -9922,173 +9922,153 @@
         <v>-135557.1895835076</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="C290" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="D290" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="E290" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="F290" t="n">
+        <v>700</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-136257.1895835076</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="C291" t="n">
         <v>185.2</v>
       </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
+      <c r="D291" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="E291" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="F291" t="n">
+        <v>969.9400000000001</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-137227.1295835076</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="C292" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="D292" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="E292" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="F292" t="n">
+        <v>12423.871</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-137227.1295835076</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="J292" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="C293" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="D293" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="E293" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="F293" t="n">
+        <v>69.9101</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-137157.2194835076</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="K293" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="C290" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="D290" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="E290" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="F290" t="n">
-        <v>700</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-136257.1895835076</v>
-      </c>
-      <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="C291" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="D291" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="E291" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="F291" t="n">
-        <v>969.9400000000001</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-137227.1295835076</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="C292" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="D292" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="E292" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="F292" t="n">
-        <v>12423.871</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-137227.1295835076</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="C293" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="D293" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="E293" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="F293" t="n">
-        <v>69.9101</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-137157.2194835076</v>
-      </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10122,7 +10102,9 @@
       <c r="I294" t="n">
         <v>185.8</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>185.2</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10161,7 +10143,9 @@
       <c r="I295" t="n">
         <v>183.8</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>185.2</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10200,7 +10184,9 @@
       <c r="I296" t="n">
         <v>184.6</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>185.2</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10239,7 +10225,9 @@
       <c r="I297" t="n">
         <v>183.3</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>185.2</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-21 BackTest INS.xlsx
+++ b/BackTest/2020-01-21 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M297"/>
+  <dimension ref="A1:L297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>0.0001</v>
       </c>
       <c r="G2" t="n">
-        <v>57042.01469999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>945.1641</v>
       </c>
       <c r="G3" t="n">
-        <v>57042.01469999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>2364.68</v>
       </c>
       <c r="G4" t="n">
-        <v>54677.33469999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>402.7323</v>
       </c>
       <c r="G5" t="n">
-        <v>54677.33469999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1100.95</v>
       </c>
       <c r="G6" t="n">
-        <v>53576.3847</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>53676.3847</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>17000</v>
       </c>
       <c r="G8" t="n">
-        <v>36676.3847</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>17000</v>
       </c>
       <c r="G9" t="n">
-        <v>19676.3847</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2266.8812</v>
       </c>
       <c r="G10" t="n">
-        <v>21943.26589999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>210.063</v>
       </c>
       <c r="G11" t="n">
-        <v>21733.2029</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>559.9981</v>
       </c>
       <c r="G12" t="n">
-        <v>22293.201</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>9876.688899999999</v>
       </c>
       <c r="G13" t="n">
-        <v>12416.5121</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>50000</v>
       </c>
       <c r="G14" t="n">
-        <v>12416.5121</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2000</v>
       </c>
       <c r="G15" t="n">
-        <v>14416.5121</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>172.1381</v>
       </c>
       <c r="G16" t="n">
-        <v>14588.6502</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>14588.6502</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>18.7804</v>
       </c>
       <c r="G18" t="n">
-        <v>14588.6502</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>14592.6502</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>581.5556</v>
       </c>
       <c r="G20" t="n">
-        <v>15174.2058</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>15178.2058</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>15182.2058</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>15186.2058</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>4008</v>
       </c>
       <c r="G24" t="n">
-        <v>19194.2058</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>3000</v>
       </c>
       <c r="G25" t="n">
-        <v>22194.2058</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>11476.2451</v>
       </c>
       <c r="G26" t="n">
-        <v>33670.4509</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>3781</v>
       </c>
       <c r="G27" t="n">
-        <v>33670.4509</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>5332.9</v>
       </c>
       <c r="G28" t="n">
-        <v>39003.3509</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>500</v>
       </c>
       <c r="G29" t="n">
-        <v>39503.3509</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1490</v>
       </c>
       <c r="G30" t="n">
-        <v>40993.3509</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>34890.454</v>
       </c>
       <c r="G31" t="n">
-        <v>75883.80489999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>400</v>
       </c>
       <c r="G32" t="n">
-        <v>75483.80489999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>500</v>
       </c>
       <c r="G33" t="n">
-        <v>75483.80489999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>17877.19</v>
       </c>
       <c r="G34" t="n">
-        <v>57606.61489999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>927.0059</v>
       </c>
       <c r="G35" t="n">
-        <v>58533.62079999998</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>13123.2714</v>
       </c>
       <c r="G36" t="n">
-        <v>45410.34939999998</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>12000</v>
       </c>
       <c r="G37" t="n">
-        <v>45410.34939999998</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>15592</v>
       </c>
       <c r="G38" t="n">
-        <v>29818.34939999998</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>111</v>
       </c>
       <c r="G39" t="n">
-        <v>29818.34939999998</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>2531.4861</v>
       </c>
       <c r="G40" t="n">
-        <v>29818.34939999998</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>611</v>
       </c>
       <c r="G41" t="n">
-        <v>29818.34939999998</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>4147.9281</v>
       </c>
       <c r="G42" t="n">
-        <v>29818.34939999998</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>5043.5021</v>
       </c>
       <c r="G43" t="n">
-        <v>34861.85149999998</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>20110</v>
       </c>
       <c r="G44" t="n">
-        <v>14751.85149999998</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>8815.715399999999</v>
       </c>
       <c r="G45" t="n">
-        <v>5936.136099999983</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>10000</v>
       </c>
       <c r="G46" t="n">
-        <v>5936.136099999983</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>8604.445</v>
       </c>
       <c r="G47" t="n">
-        <v>14540.58109999998</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>7</v>
       </c>
       <c r="G48" t="n">
-        <v>14533.58109999998</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>23.3186</v>
       </c>
       <c r="G49" t="n">
-        <v>14510.26249999998</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>634.2833000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>13875.97919999998</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>724.1105</v>
       </c>
       <c r="G51" t="n">
-        <v>13875.97919999998</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>276</v>
       </c>
       <c r="G52" t="n">
-        <v>13599.97919999998</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>220</v>
       </c>
       <c r="G53" t="n">
-        <v>13379.97919999998</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>68.303</v>
       </c>
       <c r="G54" t="n">
-        <v>13379.97919999998</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>19</v>
       </c>
       <c r="G55" t="n">
-        <v>13379.97919999998</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>88</v>
       </c>
       <c r="G56" t="n">
-        <v>13291.97919999998</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>546.3283</v>
       </c>
       <c r="G57" t="n">
-        <v>12745.65089999998</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1701.3964</v>
       </c>
       <c r="G58" t="n">
-        <v>11044.25449999998</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>2049.8196</v>
       </c>
       <c r="G59" t="n">
-        <v>13094.07409999998</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>2626.0946</v>
       </c>
       <c r="G60" t="n">
-        <v>15720.16869999998</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1050.2227</v>
       </c>
       <c r="G61" t="n">
-        <v>14669.94599999998</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>4209.7124</v>
       </c>
       <c r="G62" t="n">
-        <v>10460.23359999998</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>132</v>
       </c>
       <c r="G63" t="n">
-        <v>10460.23359999998</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>176</v>
       </c>
       <c r="G64" t="n">
-        <v>10636.23359999998</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>131.93</v>
       </c>
       <c r="G65" t="n">
-        <v>10504.30359999998</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>11793.9302</v>
       </c>
       <c r="G66" t="n">
-        <v>22298.23379999998</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>594.0863000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>21704.14749999998</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1835.5756</v>
       </c>
       <c r="G68" t="n">
-        <v>23539.72309999998</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>3332.2175</v>
       </c>
       <c r="G69" t="n">
-        <v>26871.94059999998</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>10.5669</v>
       </c>
       <c r="G70" t="n">
-        <v>26861.37369999998</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>138.63</v>
       </c>
       <c r="G71" t="n">
-        <v>26722.74369999998</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>0.2114</v>
       </c>
       <c r="G72" t="n">
-        <v>26722.74369999998</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>4.5669</v>
       </c>
       <c r="G73" t="n">
-        <v>26718.17679999998</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>122</v>
       </c>
       <c r="G74" t="n">
-        <v>26718.17679999998</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>5473.5815</v>
       </c>
       <c r="G75" t="n">
-        <v>21244.59529999998</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>927.0059</v>
       </c>
       <c r="G76" t="n">
-        <v>20317.58939999998</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>1797.4998</v>
       </c>
       <c r="G77" t="n">
-        <v>22115.08919999998</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>2.63</v>
       </c>
       <c r="G78" t="n">
-        <v>22117.71919999998</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>1499.9064</v>
       </c>
       <c r="G79" t="n">
-        <v>20617.81279999998</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>9774.6792</v>
       </c>
       <c r="G80" t="n">
-        <v>10843.13359999998</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>11414.5752</v>
       </c>
       <c r="G81" t="n">
-        <v>-571.4416000000183</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>104</v>
       </c>
       <c r="G82" t="n">
-        <v>-467.4416000000183</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>909</v>
       </c>
       <c r="G83" t="n">
-        <v>441.5583999999817</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>1196.9532</v>
       </c>
       <c r="G84" t="n">
-        <v>441.5583999999817</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>1078.2828</v>
       </c>
       <c r="G85" t="n">
-        <v>441.5583999999817</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>3040.6632</v>
       </c>
       <c r="G86" t="n">
-        <v>3482.221599999982</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>387.1161</v>
       </c>
       <c r="G87" t="n">
-        <v>3869.337699999982</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>44</v>
       </c>
       <c r="G88" t="n">
-        <v>3913.337699999982</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>83.43000000000001</v>
       </c>
       <c r="G89" t="n">
-        <v>3913.337699999982</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>1332</v>
       </c>
       <c r="G90" t="n">
-        <v>2581.337699999982</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>220</v>
       </c>
       <c r="G91" t="n">
-        <v>2581.337699999982</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>0.4362</v>
       </c>
       <c r="G92" t="n">
-        <v>2581.337699999982</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>5459.777</v>
       </c>
       <c r="G93" t="n">
-        <v>-2878.439300000018</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>274.575</v>
       </c>
       <c r="G94" t="n">
-        <v>-2878.439300000018</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>2147.6442</v>
       </c>
       <c r="G95" t="n">
-        <v>-730.795100000018</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>6.6302</v>
       </c>
       <c r="G96" t="n">
-        <v>-737.425300000018</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>2.6316</v>
       </c>
       <c r="G97" t="n">
-        <v>-737.425300000018</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>2443.7331</v>
       </c>
       <c r="G98" t="n">
-        <v>1706.307799999982</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>13153.1845</v>
       </c>
       <c r="G99" t="n">
-        <v>1706.307799999982</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>857</v>
       </c>
       <c r="G100" t="n">
-        <v>2563.307799999982</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>550</v>
       </c>
       <c r="G101" t="n">
-        <v>3113.307799999982</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>921.7066</v>
       </c>
       <c r="G102" t="n">
-        <v>2191.601199999982</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>2.61</v>
       </c>
       <c r="G103" t="n">
-        <v>2194.211199999982</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>13063.9039</v>
       </c>
       <c r="G104" t="n">
-        <v>-10869.69270000002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>882.724</v>
       </c>
       <c r="G105" t="n">
-        <v>-9986.968700000018</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>2000</v>
       </c>
       <c r="G106" t="n">
-        <v>-11986.96870000002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>29.35</v>
       </c>
       <c r="G107" t="n">
-        <v>-11986.96870000002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>4539.8813</v>
       </c>
       <c r="G108" t="n">
-        <v>-11986.96870000002</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>11560</v>
       </c>
       <c r="G109" t="n">
-        <v>-11986.96870000002</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>5971.7565</v>
       </c>
       <c r="G110" t="n">
-        <v>-17958.72520000002</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>872.5497</v>
       </c>
       <c r="G111" t="n">
-        <v>-17958.72520000002</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>2333</v>
       </c>
       <c r="G112" t="n">
-        <v>-15625.72520000002</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>2737</v>
       </c>
       <c r="G113" t="n">
-        <v>-12888.72520000002</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>2.61</v>
       </c>
       <c r="G114" t="n">
-        <v>-12886.11520000002</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>395.2573</v>
       </c>
       <c r="G115" t="n">
-        <v>-12886.11520000002</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>2750</v>
       </c>
       <c r="G116" t="n">
-        <v>-15636.11520000002</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>944</v>
       </c>
       <c r="G117" t="n">
-        <v>-15636.11520000002</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>1039.393</v>
       </c>
       <c r="G118" t="n">
-        <v>-16675.50820000002</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>746.03</v>
       </c>
       <c r="G119" t="n">
-        <v>-15929.47820000002</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>842.6712</v>
       </c>
       <c r="G120" t="n">
-        <v>-15929.47820000002</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>671.427</v>
       </c>
       <c r="G121" t="n">
-        <v>-15929.47820000002</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>43</v>
       </c>
       <c r="G122" t="n">
-        <v>-15886.47820000002</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>819.4868</v>
       </c>
       <c r="G123" t="n">
-        <v>-15066.99140000002</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>9.1313</v>
       </c>
       <c r="G124" t="n">
-        <v>-15066.99140000002</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>4599.5612</v>
       </c>
       <c r="G125" t="n">
-        <v>-19666.55260000002</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>2.61</v>
       </c>
       <c r="G126" t="n">
-        <v>-19663.94260000002</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>14877.4993</v>
       </c>
       <c r="G127" t="n">
-        <v>-4786.443300000017</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>1000</v>
       </c>
       <c r="G128" t="n">
-        <v>-5786.443300000017</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>1755.0434</v>
       </c>
       <c r="G129" t="n">
-        <v>-7541.486700000018</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>604.2843</v>
       </c>
       <c r="G130" t="n">
-        <v>-7541.486700000018</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>2.61</v>
       </c>
       <c r="G131" t="n">
-        <v>-7538.876700000018</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>1611.1054</v>
       </c>
       <c r="G132" t="n">
-        <v>-9149.982100000017</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>1037.415</v>
       </c>
       <c r="G133" t="n">
-        <v>-9149.982100000017</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>412</v>
       </c>
       <c r="G134" t="n">
-        <v>-9149.982100000017</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>1914.4593</v>
       </c>
       <c r="G135" t="n">
-        <v>-9149.982100000017</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>8116.3065</v>
       </c>
       <c r="G136" t="n">
-        <v>-1033.675600000018</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>2520.7532</v>
       </c>
       <c r="G137" t="n">
-        <v>-3554.428800000018</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>250</v>
       </c>
       <c r="G138" t="n">
-        <v>-3554.428800000018</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>367.353</v>
       </c>
       <c r="G139" t="n">
-        <v>-3554.428800000018</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>1434.2775</v>
       </c>
       <c r="G140" t="n">
-        <v>-2120.151300000018</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>1357.0557</v>
       </c>
       <c r="G141" t="n">
-        <v>-763.0956000000178</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>6378.7053861325</v>
       </c>
       <c r="G142" t="n">
-        <v>5615.609786132482</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>3901.3272</v>
       </c>
       <c r="G143" t="n">
-        <v>9516.936986132483</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>5633.7053</v>
       </c>
       <c r="G144" t="n">
-        <v>3883.231686132483</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>22.6326</v>
       </c>
       <c r="G145" t="n">
-        <v>3905.864286132483</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>4868.4152</v>
       </c>
       <c r="G146" t="n">
-        <v>-962.550913867517</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>4648.2078</v>
       </c>
       <c r="G147" t="n">
-        <v>-5610.758713867517</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>2730.7964</v>
       </c>
       <c r="G148" t="n">
-        <v>-8341.555113867518</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>2659.9436</v>
       </c>
       <c r="G149" t="n">
-        <v>-11001.49871386752</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>2.6</v>
       </c>
       <c r="G150" t="n">
-        <v>-10998.89871386752</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>1728.3513</v>
       </c>
       <c r="G151" t="n">
-        <v>-10998.89871386752</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>201</v>
       </c>
       <c r="G152" t="n">
-        <v>-11199.89871386752</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>421.6357</v>
       </c>
       <c r="G153" t="n">
-        <v>-10778.26301386752</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>327.7727</v>
       </c>
       <c r="G154" t="n">
-        <v>-10778.26301386752</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>1890.3374</v>
       </c>
       <c r="G155" t="n">
-        <v>-10778.26301386752</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>2600</v>
       </c>
       <c r="G156" t="n">
-        <v>-10778.26301386752</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>5310.2199</v>
       </c>
       <c r="G157" t="n">
-        <v>-16088.48291386752</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>3542.7727</v>
       </c>
       <c r="G158" t="n">
-        <v>-12545.71021386752</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>222.0666</v>
       </c>
       <c r="G159" t="n">
-        <v>-12545.71021386752</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>2.5867</v>
       </c>
       <c r="G160" t="n">
-        <v>-12548.29691386752</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>4144.3318</v>
       </c>
       <c r="G161" t="n">
-        <v>-16692.62871386752</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>7210</v>
       </c>
       <c r="G162" t="n">
-        <v>-16692.62871386752</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>6663.2096</v>
       </c>
       <c r="G163" t="n">
-        <v>-10029.41911386752</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>281.0843</v>
       </c>
       <c r="G164" t="n">
-        <v>-10029.41911386752</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>1032.0809</v>
       </c>
       <c r="G165" t="n">
-        <v>-10029.41911386752</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>6412.5267</v>
       </c>
       <c r="G166" t="n">
-        <v>-16441.94581386752</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>472.2101</v>
       </c>
       <c r="G167" t="n">
-        <v>-15969.73571386752</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>1969.5282</v>
       </c>
       <c r="G168" t="n">
-        <v>-14000.20751386752</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>26.9859</v>
       </c>
       <c r="G169" t="n">
-        <v>-14000.20751386752</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>10</v>
       </c>
       <c r="G170" t="n">
-        <v>-14010.20751386752</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>213.6471</v>
       </c>
       <c r="G171" t="n">
-        <v>-14010.20751386752</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>3153.3419</v>
       </c>
       <c r="G172" t="n">
-        <v>-10856.86561386752</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>250</v>
       </c>
       <c r="G173" t="n">
-        <v>-10856.86561386752</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>10</v>
       </c>
       <c r="G174" t="n">
-        <v>-10866.86561386752</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>1373.5756</v>
       </c>
       <c r="G175" t="n">
-        <v>-10866.86561386752</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>10</v>
       </c>
       <c r="G176" t="n">
-        <v>-10876.86561386752</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>102.6968</v>
       </c>
       <c r="G177" t="n">
-        <v>-10979.56241386752</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>10</v>
       </c>
       <c r="G178" t="n">
-        <v>-10969.56241386752</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>515.1545</v>
       </c>
       <c r="G179" t="n">
-        <v>-10969.56241386752</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>2414.533</v>
       </c>
       <c r="G180" t="n">
-        <v>-13384.09541386752</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>50248</v>
       </c>
       <c r="G181" t="n">
-        <v>36863.90458613248</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>10818.374</v>
       </c>
       <c r="G182" t="n">
-        <v>26045.53058613249</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>105.0671</v>
       </c>
       <c r="G183" t="n">
-        <v>26045.53058613249</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>2988.8762</v>
       </c>
       <c r="G184" t="n">
-        <v>26045.53058613249</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>11</v>
       </c>
       <c r="G185" t="n">
-        <v>26045.53058613249</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>10674.4808</v>
       </c>
       <c r="G186" t="n">
-        <v>15371.04978613249</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>505.5616</v>
       </c>
       <c r="G187" t="n">
-        <v>15876.61138613248</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>650.4541</v>
       </c>
       <c r="G188" t="n">
-        <v>16527.06548613248</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>480.1238</v>
       </c>
       <c r="G189" t="n">
-        <v>17007.18928613248</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>351</v>
       </c>
       <c r="G190" t="n">
-        <v>17358.18928613248</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>5771.659</v>
       </c>
       <c r="G191" t="n">
-        <v>23129.84828613248</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>4070.4048</v>
       </c>
       <c r="G192" t="n">
-        <v>19059.44348613248</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>10010</v>
       </c>
       <c r="G193" t="n">
-        <v>9049.443486132484</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>3.1188</v>
       </c>
       <c r="G194" t="n">
-        <v>9046.324686132484</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>10000</v>
       </c>
       <c r="G195" t="n">
-        <v>-953.6753138675158</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>308.3601</v>
       </c>
       <c r="G196" t="n">
-        <v>-953.6753138675158</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>7305</v>
       </c>
       <c r="G197" t="n">
-        <v>6351.324686132484</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>7098.8114</v>
       </c>
       <c r="G198" t="n">
-        <v>-747.4867138675154</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>60</v>
       </c>
       <c r="G199" t="n">
-        <v>-687.4867138675154</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>253.79</v>
       </c>
       <c r="G200" t="n">
-        <v>-941.2767138675154</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>2.6</v>
       </c>
       <c r="G201" t="n">
-        <v>-938.6767138675153</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>52</v>
       </c>
       <c r="G202" t="n">
-        <v>-990.6767138675153</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>24</v>
       </c>
       <c r="G203" t="n">
-        <v>-990.6767138675153</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>14262.0357</v>
       </c>
       <c r="G204" t="n">
-        <v>-15252.71241386752</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>7993.789</v>
       </c>
       <c r="G205" t="n">
-        <v>-7258.923413867516</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>7000</v>
       </c>
       <c r="G206" t="n">
-        <v>-14258.92341386752</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>416.2754303599</v>
       </c>
       <c r="G207" t="n">
-        <v>-13842.64798350762</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>1754.2506</v>
       </c>
       <c r="G208" t="n">
-        <v>-15596.89858350762</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>10002.6358</v>
       </c>
       <c r="G209" t="n">
-        <v>-25599.53438350762</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>2438.6409</v>
       </c>
       <c r="G210" t="n">
-        <v>-25599.53438350762</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>252</v>
       </c>
       <c r="G211" t="n">
-        <v>-25347.53438350762</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>475.1444</v>
       </c>
       <c r="G212" t="n">
-        <v>-25822.67878350762</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>2524.8556</v>
       </c>
       <c r="G213" t="n">
-        <v>-25822.67878350762</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>11240.4927</v>
       </c>
       <c r="G214" t="n">
-        <v>-37063.17148350762</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>10908.8972</v>
       </c>
       <c r="G215" t="n">
-        <v>-47972.06868350762</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>12112.591</v>
       </c>
       <c r="G216" t="n">
-        <v>-60084.65968350762</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>6840.1943</v>
       </c>
       <c r="G217" t="n">
-        <v>-66924.85398350762</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>3506.3841</v>
       </c>
       <c r="G218" t="n">
-        <v>-66924.85398350762</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>80</v>
       </c>
       <c r="G219" t="n">
-        <v>-66844.85398350762</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>6401.3096</v>
       </c>
       <c r="G220" t="n">
-        <v>-73246.16358350762</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>5.24</v>
       </c>
       <c r="G221" t="n">
-        <v>-73240.92358350761</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>479.9999</v>
       </c>
       <c r="G222" t="n">
-        <v>-73720.92348350761</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>159.7976</v>
       </c>
       <c r="G223" t="n">
-        <v>-73561.1258835076</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>1211.7984</v>
       </c>
       <c r="G224" t="n">
-        <v>-73561.1258835076</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>3720.0728</v>
       </c>
       <c r="G225" t="n">
-        <v>-73561.1258835076</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>3810.0397</v>
       </c>
       <c r="G226" t="n">
-        <v>-73561.1258835076</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>713.0787</v>
       </c>
       <c r="G227" t="n">
-        <v>-73561.1258835076</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>6814</v>
       </c>
       <c r="G228" t="n">
-        <v>-66747.1258835076</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>10545.3135</v>
       </c>
       <c r="G229" t="n">
-        <v>-56201.8123835076</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>1486.7727</v>
       </c>
       <c r="G230" t="n">
-        <v>-57688.5850835076</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>1782.5347</v>
       </c>
       <c r="G231" t="n">
-        <v>-57688.5850835076</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>524.3969</v>
       </c>
       <c r="G232" t="n">
-        <v>-58212.9819835076</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>1677.3706</v>
       </c>
       <c r="G233" t="n">
-        <v>-56535.6113835076</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>227.2896</v>
       </c>
       <c r="G234" t="n">
-        <v>-56762.90098350759</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>2697.228</v>
       </c>
       <c r="G235" t="n">
-        <v>-59460.12898350759</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>1889.6994</v>
       </c>
       <c r="G236" t="n">
-        <v>-57570.4295835076</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>1856.6633</v>
       </c>
       <c r="G237" t="n">
-        <v>-55713.7662835076</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>3285.8937</v>
       </c>
       <c r="G238" t="n">
-        <v>-52427.8725835076</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>2000</v>
       </c>
       <c r="G239" t="n">
-        <v>-50427.8725835076</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7583,15 @@
         <v>1056.2349</v>
       </c>
       <c r="G240" t="n">
-        <v>-49371.63768350759</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7613,15 @@
         <v>220</v>
       </c>
       <c r="G241" t="n">
-        <v>-49371.63768350759</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7643,15 @@
         <v>3077.38</v>
       </c>
       <c r="G242" t="n">
-        <v>-52449.01768350759</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7673,15 @@
         <v>391.9513</v>
       </c>
       <c r="G243" t="n">
-        <v>-52449.01768350759</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7703,15 @@
         <v>480</v>
       </c>
       <c r="G244" t="n">
-        <v>-52449.01768350759</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7733,15 @@
         <v>2170.96</v>
       </c>
       <c r="G245" t="n">
-        <v>-54619.97768350759</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7763,15 @@
         <v>1540.5972</v>
       </c>
       <c r="G246" t="n">
-        <v>-54619.97768350759</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7793,15 @@
         <v>243</v>
       </c>
       <c r="G247" t="n">
-        <v>-54862.97768350759</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7823,15 @@
         <v>243</v>
       </c>
       <c r="G248" t="n">
-        <v>-54862.97768350759</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7853,15 @@
         <v>671.956</v>
       </c>
       <c r="G249" t="n">
-        <v>-54862.97768350759</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7883,15 @@
         <v>99.84999999999999</v>
       </c>
       <c r="G250" t="n">
-        <v>-54862.97768350759</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7913,15 @@
         <v>1040.7543</v>
       </c>
       <c r="G251" t="n">
-        <v>-53822.22338350759</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7943,15 @@
         <v>828.3286000000001</v>
       </c>
       <c r="G252" t="n">
-        <v>-54650.55198350759</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +7973,15 @@
         <v>1609.7446</v>
       </c>
       <c r="G253" t="n">
-        <v>-56260.29658350759</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8003,15 @@
         <v>882.149</v>
       </c>
       <c r="G254" t="n">
-        <v>-56260.29658350759</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8033,15 @@
         <v>8.106400000000001</v>
       </c>
       <c r="G255" t="n">
-        <v>-56260.29658350759</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8063,15 @@
         <v>300</v>
       </c>
       <c r="G256" t="n">
-        <v>-55960.29658350759</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8093,15 @@
         <v>1589.1666666666</v>
       </c>
       <c r="G257" t="n">
-        <v>-55960.29658350759</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8123,15 @@
         <v>18145.7079</v>
       </c>
       <c r="G258" t="n">
-        <v>-74106.0044835076</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8153,15 @@
         <v>4067.507</v>
       </c>
       <c r="G259" t="n">
-        <v>-74106.0044835076</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8183,15 @@
         <v>3333.2516</v>
       </c>
       <c r="G260" t="n">
-        <v>-74106.0044835076</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8213,15 @@
         <v>1739.7636</v>
       </c>
       <c r="G261" t="n">
-        <v>-74106.0044835076</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8243,15 @@
         <v>847.8885</v>
       </c>
       <c r="G262" t="n">
-        <v>-74953.8929835076</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8273,15 @@
         <v>412.9999</v>
       </c>
       <c r="G263" t="n">
-        <v>-74540.8930835076</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8303,15 @@
         <v>10477.44</v>
       </c>
       <c r="G264" t="n">
-        <v>-85018.3330835076</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8333,15 @@
         <v>1411.6663</v>
       </c>
       <c r="G265" t="n">
-        <v>-85018.3330835076</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8363,15 @@
         <v>14877.4993</v>
       </c>
       <c r="G266" t="n">
-        <v>-99895.8323835076</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8393,15 @@
         <v>70.89</v>
       </c>
       <c r="G267" t="n">
-        <v>-99895.8323835076</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8423,15 @@
         <v>760.9186</v>
       </c>
       <c r="G268" t="n">
-        <v>-99895.8323835076</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8453,15 @@
         <v>1714.0515</v>
       </c>
       <c r="G269" t="n">
-        <v>-101609.8838835076</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8483,15 @@
         <v>1310.8394</v>
       </c>
       <c r="G270" t="n">
-        <v>-101609.8838835076</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8513,15 @@
         <v>1299.517</v>
       </c>
       <c r="G271" t="n">
-        <v>-101609.8838835076</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8543,15 @@
         <v>731.5996</v>
       </c>
       <c r="G272" t="n">
-        <v>-101609.8838835076</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8573,15 @@
         <v>362.3231</v>
       </c>
       <c r="G273" t="n">
-        <v>-101609.8838835076</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8603,15 @@
         <v>500</v>
       </c>
       <c r="G274" t="n">
-        <v>-102109.8838835076</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8633,15 @@
         <v>2266.5467</v>
       </c>
       <c r="G275" t="n">
-        <v>-104376.4305835076</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8663,15 @@
         <v>3</v>
       </c>
       <c r="G276" t="n">
-        <v>-104373.4305835076</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8693,15 @@
         <v>800.2198</v>
       </c>
       <c r="G277" t="n">
-        <v>-105173.6503835076</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8723,15 @@
         <v>55.92</v>
       </c>
       <c r="G278" t="n">
-        <v>-105229.5703835076</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +8753,15 @@
         <v>480</v>
       </c>
       <c r="G279" t="n">
-        <v>-105229.5703835076</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +8783,15 @@
         <v>632.6673</v>
       </c>
       <c r="G280" t="n">
-        <v>-105862.2376835076</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +8813,15 @@
         <v>2104.3092</v>
       </c>
       <c r="G281" t="n">
-        <v>-105862.2376835076</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +8843,15 @@
         <v>2412.236</v>
       </c>
       <c r="G282" t="n">
-        <v>-108274.4736835076</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +8873,15 @@
         <v>3427.5165</v>
       </c>
       <c r="G283" t="n">
-        <v>-104846.9571835076</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +8903,15 @@
         <v>1058.7497</v>
       </c>
       <c r="G284" t="n">
-        <v>-105905.7068835076</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +8933,15 @@
         <v>304</v>
       </c>
       <c r="G285" t="n">
-        <v>-105601.7068835076</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +8963,15 @@
         <v>1588.1246</v>
       </c>
       <c r="G286" t="n">
-        <v>-107189.8314835076</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +8993,15 @@
         <v>20171.4204</v>
       </c>
       <c r="G287" t="n">
-        <v>-127361.2518835076</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9023,15 @@
         <v>9000</v>
       </c>
       <c r="G288" t="n">
-        <v>-136361.2518835076</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9053,15 @@
         <v>804.0623000000001</v>
       </c>
       <c r="G289" t="n">
-        <v>-135557.1895835076</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,18 +9083,15 @@
         <v>700</v>
       </c>
       <c r="G290" t="n">
-        <v>-136257.1895835076</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9985,18 +9113,15 @@
         <v>969.9400000000001</v>
       </c>
       <c r="G291" t="n">
-        <v>-137227.1295835076</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10018,22 +9143,15 @@
         <v>12423.871</v>
       </c>
       <c r="G292" t="n">
-        <v>-137227.1295835076</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="J292" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10055,188 +9173,147 @@
         <v>69.9101</v>
       </c>
       <c r="G293" t="n">
-        <v>-137157.2194835076</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
         <v>185.2</v>
       </c>
-      <c r="K293" t="inlineStr">
+      <c r="C294" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="D294" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="E294" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1795.3214</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="C295" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="D295" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="E295" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F295" t="n">
+        <v>10.0442</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>184</v>
+      </c>
+      <c r="C296" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="D296" t="n">
+        <v>184</v>
+      </c>
+      <c r="E296" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="F296" t="n">
+        <v>9573.749900000001</v>
+      </c>
+      <c r="G296" t="n">
+        <v>1</v>
+      </c>
+      <c r="H296" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="C294" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="D294" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="E294" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="F294" t="n">
-        <v>1795.3214</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-138952.5408835076</v>
-      </c>
-      <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="J294" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="K294" t="inlineStr">
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="C297" t="n">
+        <v>182.3</v>
+      </c>
+      <c r="D297" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="E297" t="n">
+        <v>182.3</v>
+      </c>
+      <c r="F297" t="n">
+        <v>12424.0697</v>
+      </c>
+      <c r="G297" t="n">
+        <v>1</v>
+      </c>
+      <c r="H297" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="C295" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="D295" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="E295" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="F295" t="n">
-        <v>10.0442</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-138942.4966835076</v>
-      </c>
-      <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="J295" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>184</v>
-      </c>
-      <c r="C296" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="D296" t="n">
-        <v>184</v>
-      </c>
-      <c r="E296" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="F296" t="n">
-        <v>9573.749900000001</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-148516.2465835076</v>
-      </c>
-      <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>184.6</v>
-      </c>
-      <c r="J296" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="C297" t="n">
-        <v>182.3</v>
-      </c>
-      <c r="D297" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="E297" t="n">
-        <v>182.3</v>
-      </c>
-      <c r="F297" t="n">
-        <v>12424.0697</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-160940.3162835076</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="J297" t="n">
-        <v>185.2</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
